--- a/BackTest/2019-10-26 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-26 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>46590</v>
+        <v>45100</v>
       </c>
       <c r="C2" t="n">
-        <v>46590</v>
+        <v>45100</v>
       </c>
       <c r="D2" t="n">
-        <v>46590</v>
+        <v>45100</v>
       </c>
       <c r="E2" t="n">
-        <v>46590</v>
+        <v>45100</v>
       </c>
       <c r="F2" t="n">
-        <v>9.892200000000001</v>
+        <v>0.1941</v>
       </c>
       <c r="G2" t="n">
-        <v>45998.66666666666</v>
+        <v>601.4312415200002</v>
       </c>
       <c r="H2" t="n">
-        <v>44919.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>46600</v>
+        <v>43790</v>
       </c>
       <c r="C3" t="n">
-        <v>45630</v>
+        <v>43790</v>
       </c>
       <c r="D3" t="n">
-        <v>46800</v>
+        <v>43790</v>
       </c>
       <c r="E3" t="n">
-        <v>44300</v>
+        <v>43790</v>
       </c>
       <c r="F3" t="n">
-        <v>83.57940000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>45994</v>
+        <v>601.2312415200001</v>
       </c>
       <c r="H3" t="n">
-        <v>44936.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46790</v>
+        <v>45000</v>
       </c>
       <c r="C4" t="n">
-        <v>46790</v>
+        <v>45000</v>
       </c>
       <c r="D4" t="n">
-        <v>46790</v>
+        <v>45000</v>
       </c>
       <c r="E4" t="n">
-        <v>46790</v>
+        <v>45000</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4163</v>
+        <v>0.1942</v>
       </c>
       <c r="G4" t="n">
-        <v>46112.66666666666</v>
+        <v>601.4254415200002</v>
       </c>
       <c r="H4" t="n">
-        <v>44990.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46790</v>
+        <v>43750</v>
       </c>
       <c r="C5" t="n">
-        <v>46790</v>
+        <v>43750</v>
       </c>
       <c r="D5" t="n">
-        <v>46790</v>
+        <v>43750</v>
       </c>
       <c r="E5" t="n">
-        <v>46790</v>
+        <v>43750</v>
       </c>
       <c r="F5" t="n">
-        <v>1.8939</v>
+        <v>2.8869</v>
       </c>
       <c r="G5" t="n">
-        <v>46178.66666666666</v>
+        <v>598.5385415200002</v>
       </c>
       <c r="H5" t="n">
-        <v>45042</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46790</v>
+        <v>44900</v>
       </c>
       <c r="C6" t="n">
-        <v>46420</v>
+        <v>44900</v>
       </c>
       <c r="D6" t="n">
-        <v>46800</v>
+        <v>44900</v>
       </c>
       <c r="E6" t="n">
-        <v>46420</v>
+        <v>44900</v>
       </c>
       <c r="F6" t="n">
-        <v>10.6192</v>
+        <v>13.2878</v>
       </c>
       <c r="G6" t="n">
-        <v>46220</v>
+        <v>611.8263415200001</v>
       </c>
       <c r="H6" t="n">
-        <v>45090.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45540</v>
+        <v>44950</v>
       </c>
       <c r="C7" t="n">
-        <v>44300</v>
+        <v>44900</v>
       </c>
       <c r="D7" t="n">
-        <v>45540</v>
+        <v>44950</v>
       </c>
       <c r="E7" t="n">
-        <v>44300</v>
+        <v>44900</v>
       </c>
       <c r="F7" t="n">
-        <v>43.128</v>
+        <v>18.2913</v>
       </c>
       <c r="G7" t="n">
-        <v>46148.66666666666</v>
+        <v>611.8263415200001</v>
       </c>
       <c r="H7" t="n">
-        <v>45081.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>46390</v>
+        <v>44900</v>
       </c>
       <c r="C8" t="n">
-        <v>46390</v>
+        <v>44900</v>
       </c>
       <c r="D8" t="n">
-        <v>46390</v>
+        <v>44900</v>
       </c>
       <c r="E8" t="n">
-        <v>46390</v>
+        <v>44900</v>
       </c>
       <c r="F8" t="n">
-        <v>3.2631</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>46213.33333333334</v>
+        <v>611.8263415200001</v>
       </c>
       <c r="H8" t="n">
-        <v>45130.5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>46400</v>
+        <v>44940</v>
       </c>
       <c r="C9" t="n">
-        <v>46400</v>
+        <v>44950</v>
       </c>
       <c r="D9" t="n">
-        <v>46400</v>
+        <v>44950</v>
       </c>
       <c r="E9" t="n">
-        <v>46400</v>
+        <v>44940</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4</v>
+        <v>97.6909</v>
       </c>
       <c r="G9" t="n">
-        <v>46278</v>
+        <v>709.5172415200002</v>
       </c>
       <c r="H9" t="n">
-        <v>45160</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>46360</v>
+        <v>45100</v>
       </c>
       <c r="C10" t="n">
-        <v>46300</v>
+        <v>45100</v>
       </c>
       <c r="D10" t="n">
-        <v>46360</v>
+        <v>45100</v>
       </c>
       <c r="E10" t="n">
-        <v>46300</v>
+        <v>45100</v>
       </c>
       <c r="F10" t="n">
-        <v>7.4899</v>
+        <v>0.767</v>
       </c>
       <c r="G10" t="n">
-        <v>46311.33333333334</v>
+        <v>710.2842415200003</v>
       </c>
       <c r="H10" t="n">
-        <v>45207.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>46420</v>
+        <v>45100</v>
       </c>
       <c r="C11" t="n">
-        <v>46580</v>
+        <v>45100</v>
       </c>
       <c r="D11" t="n">
-        <v>46580</v>
+        <v>45100</v>
       </c>
       <c r="E11" t="n">
-        <v>46420</v>
+        <v>45100</v>
       </c>
       <c r="F11" t="n">
-        <v>9.1251</v>
+        <v>7.5041</v>
       </c>
       <c r="G11" t="n">
-        <v>46310.66666666666</v>
+        <v>710.2842415200003</v>
       </c>
       <c r="H11" t="n">
-        <v>45240.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="C12" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="D12" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="E12" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>0.2752</v>
       </c>
       <c r="G12" t="n">
-        <v>46360</v>
+        <v>710.2842415200003</v>
       </c>
       <c r="H12" t="n">
-        <v>45277.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="C13" t="n">
-        <v>47000</v>
+        <v>45100</v>
       </c>
       <c r="D13" t="n">
-        <v>47000</v>
+        <v>45100</v>
       </c>
       <c r="E13" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="F13" t="n">
-        <v>3.1615</v>
+        <v>4.2158</v>
       </c>
       <c r="G13" t="n">
-        <v>46387.33333333334</v>
+        <v>710.2842415200003</v>
       </c>
       <c r="H13" t="n">
-        <v>45337.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47000</v>
+        <v>44810</v>
       </c>
       <c r="C14" t="n">
-        <v>46740</v>
+        <v>44810</v>
       </c>
       <c r="D14" t="n">
-        <v>47000</v>
+        <v>44810</v>
       </c>
       <c r="E14" t="n">
-        <v>46740</v>
+        <v>44810</v>
       </c>
       <c r="F14" t="n">
-        <v>2.4819</v>
+        <v>0.3</v>
       </c>
       <c r="G14" t="n">
-        <v>46397.33333333334</v>
+        <v>709.9842415200003</v>
       </c>
       <c r="H14" t="n">
-        <v>45390.83333333334</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>45100</v>
+      </c>
+      <c r="K14" t="n">
+        <v>45100</v>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +892,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>46690</v>
+        <v>44990</v>
       </c>
       <c r="C15" t="n">
-        <v>46340</v>
+        <v>45000</v>
       </c>
       <c r="D15" t="n">
-        <v>46990</v>
+        <v>45000</v>
       </c>
       <c r="E15" t="n">
-        <v>46340</v>
+        <v>44990</v>
       </c>
       <c r="F15" t="n">
-        <v>1.8327</v>
+        <v>19.9435</v>
       </c>
       <c r="G15" t="n">
-        <v>46380</v>
+        <v>729.9277415200003</v>
       </c>
       <c r="H15" t="n">
-        <v>45437.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +933,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46030</v>
+        <v>45600</v>
       </c>
       <c r="C16" t="n">
-        <v>45950</v>
+        <v>45700</v>
       </c>
       <c r="D16" t="n">
-        <v>46030</v>
+        <v>45700</v>
       </c>
       <c r="E16" t="n">
-        <v>45950</v>
+        <v>45600</v>
       </c>
       <c r="F16" t="n">
-        <v>10.4606</v>
+        <v>3.7801</v>
       </c>
       <c r="G16" t="n">
-        <v>46337.33333333334</v>
+        <v>733.7078415200002</v>
       </c>
       <c r="H16" t="n">
-        <v>45477.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +974,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45110</v>
+        <v>45700</v>
       </c>
       <c r="C17" t="n">
-        <v>45110</v>
+        <v>45700</v>
       </c>
       <c r="D17" t="n">
-        <v>45110</v>
+        <v>45700</v>
       </c>
       <c r="E17" t="n">
-        <v>45110</v>
+        <v>45700</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5649</v>
+        <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>46238.66666666666</v>
+        <v>733.7078415200002</v>
       </c>
       <c r="H17" t="n">
-        <v>45475.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1015,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45120</v>
+        <v>45010</v>
       </c>
       <c r="C18" t="n">
-        <v>45120</v>
+        <v>45010</v>
       </c>
       <c r="D18" t="n">
-        <v>45120</v>
+        <v>45010</v>
       </c>
       <c r="E18" t="n">
-        <v>45120</v>
+        <v>45010</v>
       </c>
       <c r="F18" t="n">
-        <v>1.2639</v>
+        <v>0.6</v>
       </c>
       <c r="G18" t="n">
-        <v>46204.66666666666</v>
+        <v>733.1078415200002</v>
       </c>
       <c r="H18" t="n">
-        <v>45475.5</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1056,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45910</v>
+        <v>45650</v>
       </c>
       <c r="C19" t="n">
-        <v>45910</v>
+        <v>45800</v>
       </c>
       <c r="D19" t="n">
-        <v>45910</v>
+        <v>45800</v>
       </c>
       <c r="E19" t="n">
-        <v>45910</v>
+        <v>45650</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0195</v>
+        <v>12.35645041</v>
       </c>
       <c r="G19" t="n">
-        <v>46146</v>
+        <v>745.4642919300002</v>
       </c>
       <c r="H19" t="n">
-        <v>45496</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1097,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45970</v>
+        <v>45800</v>
       </c>
       <c r="C20" t="n">
-        <v>45970</v>
+        <v>45800</v>
       </c>
       <c r="D20" t="n">
-        <v>45970</v>
+        <v>45800</v>
       </c>
       <c r="E20" t="n">
-        <v>45970</v>
+        <v>45800</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1262</v>
+        <v>4.959e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>46091.33333333334</v>
+        <v>745.4642919300002</v>
       </c>
       <c r="H20" t="n">
-        <v>45513.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1138,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45970</v>
+        <v>45370</v>
       </c>
       <c r="C21" t="n">
-        <v>45970</v>
+        <v>45370</v>
       </c>
       <c r="D21" t="n">
-        <v>45970</v>
+        <v>45370</v>
       </c>
       <c r="E21" t="n">
-        <v>45970</v>
+        <v>45370</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0497</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>46061.33333333334</v>
+        <v>744.4642919300002</v>
       </c>
       <c r="H21" t="n">
-        <v>45536.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1179,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>45110</v>
+        <v>45420</v>
       </c>
       <c r="C22" t="n">
-        <v>46090</v>
+        <v>45420</v>
       </c>
       <c r="D22" t="n">
-        <v>46090</v>
+        <v>45420</v>
       </c>
       <c r="E22" t="n">
-        <v>45110</v>
+        <v>45420</v>
       </c>
       <c r="F22" t="n">
-        <v>9.0924</v>
+        <v>2.3553</v>
       </c>
       <c r="G22" t="n">
-        <v>46180.66666666666</v>
+        <v>746.8195919300002</v>
       </c>
       <c r="H22" t="n">
-        <v>45541</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1220,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>46100</v>
+        <v>45430</v>
       </c>
       <c r="C23" t="n">
-        <v>46110</v>
+        <v>45430</v>
       </c>
       <c r="D23" t="n">
-        <v>46110</v>
+        <v>45430</v>
       </c>
       <c r="E23" t="n">
-        <v>46100</v>
+        <v>45430</v>
       </c>
       <c r="F23" t="n">
-        <v>80.65989999999999</v>
+        <v>0.6</v>
       </c>
       <c r="G23" t="n">
-        <v>46162</v>
+        <v>747.4195919300003</v>
       </c>
       <c r="H23" t="n">
-        <v>45582.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1261,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>46110</v>
+        <v>45800</v>
       </c>
       <c r="C24" t="n">
-        <v>46100</v>
+        <v>45800</v>
       </c>
       <c r="D24" t="n">
-        <v>46110</v>
+        <v>45800</v>
       </c>
       <c r="E24" t="n">
-        <v>46100</v>
+        <v>45800</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5195</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>46142</v>
+        <v>748.4195919300003</v>
       </c>
       <c r="H24" t="n">
-        <v>45597.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1302,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>46100</v>
+        <v>45890</v>
       </c>
       <c r="C25" t="n">
-        <v>46100</v>
+        <v>46590</v>
       </c>
       <c r="D25" t="n">
-        <v>46100</v>
+        <v>46590</v>
       </c>
       <c r="E25" t="n">
-        <v>46100</v>
+        <v>45890</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>29.8095</v>
       </c>
       <c r="G25" t="n">
-        <v>46128.66666666666</v>
+        <v>778.2290919300002</v>
       </c>
       <c r="H25" t="n">
-        <v>45612.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1343,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>46110</v>
+        <v>46100</v>
       </c>
       <c r="C26" t="n">
-        <v>46350</v>
+        <v>46100</v>
       </c>
       <c r="D26" t="n">
-        <v>46350</v>
+        <v>46100</v>
       </c>
       <c r="E26" t="n">
-        <v>46110</v>
+        <v>46100</v>
       </c>
       <c r="F26" t="n">
-        <v>14.8512</v>
+        <v>6.5392</v>
       </c>
       <c r="G26" t="n">
-        <v>46113.33333333334</v>
+        <v>771.6898919300002</v>
       </c>
       <c r="H26" t="n">
-        <v>45632.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1384,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>46160</v>
+        <v>46580</v>
       </c>
       <c r="C27" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="D27" t="n">
-        <v>46160</v>
+        <v>46590</v>
       </c>
       <c r="E27" t="n">
-        <v>46150</v>
+        <v>46580</v>
       </c>
       <c r="F27" t="n">
-        <v>9.994899999999999</v>
+        <v>1.2282</v>
       </c>
       <c r="G27" t="n">
-        <v>46067.33333333334</v>
+        <v>772.9180919300002</v>
       </c>
       <c r="H27" t="n">
-        <v>45658</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1425,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="C28" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="D28" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="E28" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0029</v>
+        <v>6.2027</v>
       </c>
       <c r="G28" t="n">
-        <v>46010.66666666666</v>
+        <v>772.9180919300002</v>
       </c>
       <c r="H28" t="n">
-        <v>45697.5</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1466,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>45650</v>
+        <v>46590</v>
       </c>
       <c r="C29" t="n">
-        <v>46150</v>
+        <v>46600</v>
       </c>
       <c r="D29" t="n">
-        <v>46150</v>
+        <v>46600</v>
       </c>
       <c r="E29" t="n">
-        <v>45650</v>
+        <v>46590</v>
       </c>
       <c r="F29" t="n">
-        <v>4.1973</v>
+        <v>5.3408</v>
       </c>
       <c r="G29" t="n">
-        <v>45971.33333333334</v>
+        <v>778.2588919300001</v>
       </c>
       <c r="H29" t="n">
-        <v>45737</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1507,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>46150</v>
+        <v>46600</v>
       </c>
       <c r="C30" t="n">
-        <v>46880</v>
+        <v>46590</v>
       </c>
       <c r="D30" t="n">
-        <v>46890</v>
+        <v>46600</v>
       </c>
       <c r="E30" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="F30" t="n">
-        <v>3.1547</v>
+        <v>0.1949</v>
       </c>
       <c r="G30" t="n">
-        <v>46007.33333333334</v>
+        <v>778.0639919300002</v>
       </c>
       <c r="H30" t="n">
-        <v>45766.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1548,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>46880</v>
+        <v>46590</v>
       </c>
       <c r="C31" t="n">
-        <v>46980</v>
+        <v>46590</v>
       </c>
       <c r="D31" t="n">
-        <v>46980</v>
+        <v>46590</v>
       </c>
       <c r="E31" t="n">
-        <v>46880</v>
+        <v>46590</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1515</v>
+        <v>9.892200000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>46076</v>
+        <v>778.0639919300002</v>
       </c>
       <c r="H31" t="n">
-        <v>45798.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1589,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>46980</v>
+        <v>46600</v>
       </c>
       <c r="C32" t="n">
-        <v>46980</v>
+        <v>45630</v>
       </c>
       <c r="D32" t="n">
-        <v>46980</v>
+        <v>46800</v>
       </c>
       <c r="E32" t="n">
-        <v>46980</v>
+        <v>44300</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1408</v>
+        <v>83.57940000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>46200.66666666666</v>
+        <v>694.4845919300002</v>
       </c>
       <c r="H32" t="n">
-        <v>45829.5</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1630,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="C33" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="D33" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="E33" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0663</v>
+        <v>2.4163</v>
       </c>
       <c r="G33" t="n">
-        <v>46324.66666666666</v>
+        <v>696.9008919300002</v>
       </c>
       <c r="H33" t="n">
-        <v>45860.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1671,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="C34" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="D34" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="E34" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1245</v>
+        <v>1.8939</v>
       </c>
       <c r="G34" t="n">
-        <v>46396</v>
+        <v>696.9008919300002</v>
       </c>
       <c r="H34" t="n">
-        <v>45914</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1712,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>46380</v>
+        <v>46790</v>
       </c>
       <c r="C35" t="n">
-        <v>46370</v>
+        <v>46420</v>
       </c>
       <c r="D35" t="n">
-        <v>46970</v>
+        <v>46800</v>
       </c>
       <c r="E35" t="n">
-        <v>46370</v>
+        <v>46420</v>
       </c>
       <c r="F35" t="n">
-        <v>13.2979</v>
+        <v>10.6192</v>
       </c>
       <c r="G35" t="n">
-        <v>46422.66666666666</v>
+        <v>686.2816919300002</v>
       </c>
       <c r="H35" t="n">
-        <v>45936.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1753,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>46860</v>
+        <v>45540</v>
       </c>
       <c r="C36" t="n">
-        <v>46860</v>
+        <v>44300</v>
       </c>
       <c r="D36" t="n">
-        <v>46860</v>
+        <v>45540</v>
       </c>
       <c r="E36" t="n">
-        <v>46860</v>
+        <v>44300</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0375</v>
+        <v>43.128</v>
       </c>
       <c r="G36" t="n">
-        <v>46482</v>
+        <v>643.1536919300002</v>
       </c>
       <c r="H36" t="n">
-        <v>45988.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1794,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>45800</v>
+        <v>46390</v>
       </c>
       <c r="C37" t="n">
-        <v>44310</v>
+        <v>46390</v>
       </c>
       <c r="D37" t="n">
-        <v>45800</v>
+        <v>46390</v>
       </c>
       <c r="E37" t="n">
-        <v>44310</v>
+        <v>46390</v>
       </c>
       <c r="F37" t="n">
-        <v>27.6937</v>
+        <v>3.2631</v>
       </c>
       <c r="G37" t="n">
-        <v>46363.33333333334</v>
+        <v>646.4167919300002</v>
       </c>
       <c r="H37" t="n">
-        <v>45978.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1835,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>45380</v>
+        <v>46400</v>
       </c>
       <c r="C38" t="n">
-        <v>45380</v>
+        <v>46400</v>
       </c>
       <c r="D38" t="n">
-        <v>45380</v>
+        <v>46400</v>
       </c>
       <c r="E38" t="n">
-        <v>45380</v>
+        <v>46400</v>
       </c>
       <c r="F38" t="n">
-        <v>3.1043</v>
+        <v>0.4</v>
       </c>
       <c r="G38" t="n">
-        <v>46314.66666666666</v>
+        <v>646.8167919300001</v>
       </c>
       <c r="H38" t="n">
-        <v>45986.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1876,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>46590</v>
+        <v>46360</v>
       </c>
       <c r="C39" t="n">
-        <v>46680</v>
+        <v>46300</v>
       </c>
       <c r="D39" t="n">
-        <v>46680</v>
+        <v>46360</v>
       </c>
       <c r="E39" t="n">
-        <v>46590</v>
+        <v>46300</v>
       </c>
       <c r="F39" t="n">
-        <v>0.25</v>
+        <v>7.4899</v>
       </c>
       <c r="G39" t="n">
-        <v>46353.33333333334</v>
+        <v>639.3268919300001</v>
       </c>
       <c r="H39" t="n">
-        <v>46016.5</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1917,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>46400</v>
+        <v>46420</v>
       </c>
       <c r="C40" t="n">
-        <v>46400</v>
+        <v>46580</v>
       </c>
       <c r="D40" t="n">
-        <v>46400</v>
+        <v>46580</v>
       </c>
       <c r="E40" t="n">
-        <v>46400</v>
+        <v>46420</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01</v>
+        <v>9.1251</v>
       </c>
       <c r="G40" t="n">
-        <v>46373.33333333334</v>
+        <v>648.4519919300001</v>
       </c>
       <c r="H40" t="n">
-        <v>46040.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1958,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>46130</v>
+        <v>46840</v>
       </c>
       <c r="C41" t="n">
-        <v>46130</v>
+        <v>46840</v>
       </c>
       <c r="D41" t="n">
-        <v>46130</v>
+        <v>46840</v>
       </c>
       <c r="E41" t="n">
-        <v>46130</v>
+        <v>46840</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>46358.66666666666</v>
+        <v>652.4519919300001</v>
       </c>
       <c r="H41" t="n">
-        <v>46057.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1999,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>45340</v>
+        <v>46840</v>
       </c>
       <c r="C42" t="n">
-        <v>45340</v>
+        <v>47000</v>
       </c>
       <c r="D42" t="n">
-        <v>45340</v>
+        <v>47000</v>
       </c>
       <c r="E42" t="n">
-        <v>45340</v>
+        <v>46840</v>
       </c>
       <c r="F42" t="n">
-        <v>9.7257</v>
+        <v>3.1615</v>
       </c>
       <c r="G42" t="n">
-        <v>46304.66666666666</v>
+        <v>655.6134919300001</v>
       </c>
       <c r="H42" t="n">
-        <v>46061.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2040,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>45270</v>
+        <v>47000</v>
       </c>
       <c r="C43" t="n">
-        <v>45500</v>
+        <v>46740</v>
       </c>
       <c r="D43" t="n">
-        <v>45510</v>
+        <v>47000</v>
       </c>
       <c r="E43" t="n">
-        <v>45270</v>
+        <v>46740</v>
       </c>
       <c r="F43" t="n">
-        <v>7.0121</v>
+        <v>2.4819</v>
       </c>
       <c r="G43" t="n">
-        <v>46261.33333333334</v>
+        <v>653.1315919300001</v>
       </c>
       <c r="H43" t="n">
-        <v>46068.5</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2081,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>45500</v>
+        <v>46690</v>
       </c>
       <c r="C44" t="n">
-        <v>45500</v>
+        <v>46340</v>
       </c>
       <c r="D44" t="n">
-        <v>45500</v>
+        <v>46990</v>
       </c>
       <c r="E44" t="n">
-        <v>45500</v>
+        <v>46340</v>
       </c>
       <c r="F44" t="n">
-        <v>1.6888</v>
+        <v>1.8327</v>
       </c>
       <c r="G44" t="n">
-        <v>46218</v>
+        <v>651.2988919300001</v>
       </c>
       <c r="H44" t="n">
-        <v>46075.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2122,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>45500</v>
+        <v>46030</v>
       </c>
       <c r="C45" t="n">
-        <v>45500</v>
+        <v>45950</v>
       </c>
       <c r="D45" t="n">
-        <v>45500</v>
+        <v>46030</v>
       </c>
       <c r="E45" t="n">
-        <v>45500</v>
+        <v>45950</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5121</v>
+        <v>10.4606</v>
       </c>
       <c r="G45" t="n">
-        <v>46126</v>
+        <v>640.8382919300001</v>
       </c>
       <c r="H45" t="n">
-        <v>46086.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2163,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>45500</v>
+        <v>45110</v>
       </c>
       <c r="C46" t="n">
-        <v>45500</v>
+        <v>45110</v>
       </c>
       <c r="D46" t="n">
-        <v>45500</v>
+        <v>45110</v>
       </c>
       <c r="E46" t="n">
-        <v>45500</v>
+        <v>45110</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8248</v>
+        <v>0.5649</v>
       </c>
       <c r="G46" t="n">
-        <v>46027.33333333334</v>
+        <v>640.2733919300001</v>
       </c>
       <c r="H46" t="n">
-        <v>46095</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2204,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>45290</v>
+        <v>45120</v>
       </c>
       <c r="C47" t="n">
-        <v>45290</v>
+        <v>45120</v>
       </c>
       <c r="D47" t="n">
-        <v>45290</v>
+        <v>45120</v>
       </c>
       <c r="E47" t="n">
-        <v>45290</v>
+        <v>45120</v>
       </c>
       <c r="F47" t="n">
-        <v>3.6631</v>
+        <v>1.2639</v>
       </c>
       <c r="G47" t="n">
-        <v>45914.66666666666</v>
+        <v>641.5372919300002</v>
       </c>
       <c r="H47" t="n">
-        <v>46088.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2245,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>45270</v>
+        <v>45910</v>
       </c>
       <c r="C48" t="n">
-        <v>45220</v>
+        <v>45910</v>
       </c>
       <c r="D48" t="n">
-        <v>45270</v>
+        <v>45910</v>
       </c>
       <c r="E48" t="n">
-        <v>45220</v>
+        <v>45910</v>
       </c>
       <c r="F48" t="n">
-        <v>8.4604</v>
+        <v>0.0195</v>
       </c>
       <c r="G48" t="n">
-        <v>45797.33333333334</v>
+        <v>641.5567919300001</v>
       </c>
       <c r="H48" t="n">
-        <v>46080.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2286,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>45040</v>
+        <v>45970</v>
       </c>
       <c r="C49" t="n">
-        <v>44330</v>
+        <v>45970</v>
       </c>
       <c r="D49" t="n">
-        <v>45040</v>
+        <v>45970</v>
       </c>
       <c r="E49" t="n">
-        <v>44330</v>
+        <v>45970</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0.1262</v>
       </c>
       <c r="G49" t="n">
-        <v>45620.66666666666</v>
+        <v>641.6829919300002</v>
       </c>
       <c r="H49" t="n">
-        <v>46068.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2327,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44340</v>
+        <v>45970</v>
       </c>
       <c r="C50" t="n">
-        <v>44330</v>
+        <v>45970</v>
       </c>
       <c r="D50" t="n">
-        <v>44340</v>
+        <v>45970</v>
       </c>
       <c r="E50" t="n">
-        <v>44330</v>
+        <v>45970</v>
       </c>
       <c r="F50" t="n">
-        <v>15.4441</v>
+        <v>0.0497</v>
       </c>
       <c r="G50" t="n">
-        <v>45484.66666666666</v>
+        <v>641.6829919300002</v>
       </c>
       <c r="H50" t="n">
-        <v>46044.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2368,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>45270</v>
+        <v>45110</v>
       </c>
       <c r="C51" t="n">
-        <v>45270</v>
+        <v>46090</v>
       </c>
       <c r="D51" t="n">
-        <v>45270</v>
+        <v>46090</v>
       </c>
       <c r="E51" t="n">
-        <v>45270</v>
+        <v>45110</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1</v>
+        <v>9.0924</v>
       </c>
       <c r="G51" t="n">
-        <v>45378.66666666666</v>
+        <v>650.7753919300002</v>
       </c>
       <c r="H51" t="n">
-        <v>46035.5</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2409,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>45270</v>
+        <v>46100</v>
       </c>
       <c r="C52" t="n">
-        <v>45270</v>
+        <v>46110</v>
       </c>
       <c r="D52" t="n">
-        <v>45270</v>
+        <v>46110</v>
       </c>
       <c r="E52" t="n">
-        <v>45270</v>
+        <v>46100</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1</v>
+        <v>80.65989999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>45442.66666666666</v>
+        <v>731.4352919300002</v>
       </c>
       <c r="H52" t="n">
-        <v>46033.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2450,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>45270</v>
+        <v>46110</v>
       </c>
       <c r="C53" t="n">
-        <v>45600</v>
+        <v>46100</v>
       </c>
       <c r="D53" t="n">
-        <v>45600</v>
+        <v>46110</v>
       </c>
       <c r="E53" t="n">
-        <v>45270</v>
+        <v>46100</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8</v>
+        <v>0.5195</v>
       </c>
       <c r="G53" t="n">
-        <v>45457.33333333334</v>
+        <v>730.9157919300002</v>
       </c>
       <c r="H53" t="n">
-        <v>46036.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2491,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="C54" t="n">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="D54" t="n">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="E54" t="n">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>45392</v>
+        <v>730.9157919300002</v>
       </c>
       <c r="H54" t="n">
-        <v>46041.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2532,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>45660</v>
+        <v>46110</v>
       </c>
       <c r="C55" t="n">
-        <v>45660</v>
+        <v>46350</v>
       </c>
       <c r="D55" t="n">
-        <v>45660</v>
+        <v>46350</v>
       </c>
       <c r="E55" t="n">
-        <v>45660</v>
+        <v>46110</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02</v>
+        <v>14.8512</v>
       </c>
       <c r="G55" t="n">
-        <v>45342.66666666666</v>
+        <v>745.7669919300001</v>
       </c>
       <c r="H55" t="n">
-        <v>46039</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2573,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>45540</v>
+        <v>46160</v>
       </c>
       <c r="C56" t="n">
-        <v>45540</v>
+        <v>46150</v>
       </c>
       <c r="D56" t="n">
-        <v>45540</v>
+        <v>46160</v>
       </c>
       <c r="E56" t="n">
-        <v>45540</v>
+        <v>46150</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01</v>
+        <v>9.994899999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>45303.33333333334</v>
+        <v>735.7720919300001</v>
       </c>
       <c r="H56" t="n">
-        <v>46021.5</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2614,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>44700</v>
+        <v>46150</v>
       </c>
       <c r="C57" t="n">
-        <v>44700</v>
+        <v>46150</v>
       </c>
       <c r="D57" t="n">
-        <v>44700</v>
+        <v>46150</v>
       </c>
       <c r="E57" t="n">
-        <v>44700</v>
+        <v>46150</v>
       </c>
       <c r="F57" t="n">
-        <v>17.4929</v>
+        <v>1.0029</v>
       </c>
       <c r="G57" t="n">
-        <v>45260.66666666666</v>
+        <v>735.7720919300001</v>
       </c>
       <c r="H57" t="n">
-        <v>45998.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2655,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>44700</v>
+        <v>45650</v>
       </c>
       <c r="C58" t="n">
-        <v>44410</v>
+        <v>46150</v>
       </c>
       <c r="D58" t="n">
-        <v>44700</v>
+        <v>46150</v>
       </c>
       <c r="E58" t="n">
-        <v>44410</v>
+        <v>45650</v>
       </c>
       <c r="F58" t="n">
-        <v>4.3518</v>
+        <v>4.1973</v>
       </c>
       <c r="G58" t="n">
-        <v>45188</v>
+        <v>735.7720919300001</v>
       </c>
       <c r="H58" t="n">
-        <v>45961.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2696,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>44500</v>
+        <v>46150</v>
       </c>
       <c r="C59" t="n">
-        <v>44510</v>
+        <v>46880</v>
       </c>
       <c r="D59" t="n">
-        <v>44510</v>
+        <v>46890</v>
       </c>
       <c r="E59" t="n">
-        <v>44400</v>
+        <v>46150</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>3.1547</v>
       </c>
       <c r="G59" t="n">
-        <v>45122</v>
+        <v>738.9267919300001</v>
       </c>
       <c r="H59" t="n">
-        <v>45927.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2737,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>44500</v>
+        <v>46880</v>
       </c>
       <c r="C60" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="D60" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="E60" t="n">
-        <v>44500</v>
+        <v>46880</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>0.1515</v>
       </c>
       <c r="G60" t="n">
-        <v>45056</v>
+        <v>739.0782919300002</v>
       </c>
       <c r="H60" t="n">
-        <v>45892.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,37 +2778,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="C61" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="D61" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="E61" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="F61" t="n">
-        <v>6.4967</v>
+        <v>0.1408</v>
       </c>
       <c r="G61" t="n">
-        <v>44990</v>
+        <v>739.0782919300002</v>
       </c>
       <c r="H61" t="n">
-        <v>45857.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>45100</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>1.036685144124169</v>
       </c>
     </row>
     <row r="62">
@@ -2718,36 +2819,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="C62" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="D62" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="E62" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>0.0663</v>
       </c>
       <c r="G62" t="n">
-        <v>44937.33333333334</v>
+        <v>739.0782919300002</v>
       </c>
       <c r="H62" t="n">
-        <v>45822.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2854,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="C63" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="D63" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="E63" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1</v>
+        <v>0.1245</v>
       </c>
       <c r="G63" t="n">
-        <v>44889.33333333334</v>
+        <v>739.0782919300002</v>
       </c>
       <c r="H63" t="n">
-        <v>45804</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2889,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>44500</v>
+        <v>46380</v>
       </c>
       <c r="C64" t="n">
-        <v>44300</v>
+        <v>46370</v>
       </c>
       <c r="D64" t="n">
-        <v>44500</v>
+        <v>46970</v>
       </c>
       <c r="E64" t="n">
-        <v>44300</v>
+        <v>46370</v>
       </c>
       <c r="F64" t="n">
-        <v>110</v>
+        <v>13.2979</v>
       </c>
       <c r="G64" t="n">
-        <v>44887.33333333334</v>
+        <v>725.7803919300002</v>
       </c>
       <c r="H64" t="n">
-        <v>45762.5</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2924,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>44300</v>
+        <v>46860</v>
       </c>
       <c r="C65" t="n">
-        <v>44300</v>
+        <v>46860</v>
       </c>
       <c r="D65" t="n">
-        <v>44300</v>
+        <v>46860</v>
       </c>
       <c r="E65" t="n">
-        <v>44010</v>
+        <v>46860</v>
       </c>
       <c r="F65" t="n">
-        <v>100.7608</v>
+        <v>0.0375</v>
       </c>
       <c r="G65" t="n">
-        <v>44885.33333333334</v>
+        <v>725.8178919300002</v>
       </c>
       <c r="H65" t="n">
-        <v>45721</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2959,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>44000</v>
+        <v>45800</v>
       </c>
       <c r="C66" t="n">
-        <v>44010</v>
+        <v>44310</v>
       </c>
       <c r="D66" t="n">
-        <v>44790</v>
+        <v>45800</v>
       </c>
       <c r="E66" t="n">
-        <v>44000</v>
+        <v>44310</v>
       </c>
       <c r="F66" t="n">
-        <v>15.8586</v>
+        <v>27.6937</v>
       </c>
       <c r="G66" t="n">
-        <v>44801.33333333334</v>
+        <v>698.1241919300002</v>
       </c>
       <c r="H66" t="n">
-        <v>45680.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2994,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>44010</v>
+        <v>45380</v>
       </c>
       <c r="C67" t="n">
-        <v>44720</v>
+        <v>45380</v>
       </c>
       <c r="D67" t="n">
-        <v>44750</v>
+        <v>45380</v>
       </c>
       <c r="E67" t="n">
-        <v>43870</v>
+        <v>45380</v>
       </c>
       <c r="F67" t="n">
-        <v>63.5829</v>
+        <v>3.1043</v>
       </c>
       <c r="G67" t="n">
-        <v>44764.66666666666</v>
+        <v>701.2284919300001</v>
       </c>
       <c r="H67" t="n">
-        <v>45687.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +3029,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>43880</v>
+        <v>46590</v>
       </c>
       <c r="C68" t="n">
-        <v>44670</v>
+        <v>46680</v>
       </c>
       <c r="D68" t="n">
-        <v>44670</v>
+        <v>46680</v>
       </c>
       <c r="E68" t="n">
-        <v>43810</v>
+        <v>46590</v>
       </c>
       <c r="F68" t="n">
-        <v>21.7376</v>
+        <v>0.25</v>
       </c>
       <c r="G68" t="n">
-        <v>44702.66666666666</v>
+        <v>701.4784919300001</v>
       </c>
       <c r="H68" t="n">
-        <v>45659.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +3064,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>44660</v>
+        <v>46400</v>
       </c>
       <c r="C69" t="n">
-        <v>44460</v>
+        <v>46400</v>
       </c>
       <c r="D69" t="n">
-        <v>44660</v>
+        <v>46400</v>
       </c>
       <c r="E69" t="n">
-        <v>43840</v>
+        <v>46400</v>
       </c>
       <c r="F69" t="n">
-        <v>2.0379</v>
+        <v>0.01</v>
       </c>
       <c r="G69" t="n">
-        <v>44620</v>
+        <v>701.4684919300001</v>
       </c>
       <c r="H69" t="n">
-        <v>45626.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +3099,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>43830</v>
+        <v>46130</v>
       </c>
       <c r="C70" t="n">
-        <v>44430</v>
+        <v>46130</v>
       </c>
       <c r="D70" t="n">
-        <v>44430</v>
+        <v>46130</v>
       </c>
       <c r="E70" t="n">
-        <v>43830</v>
+        <v>46130</v>
       </c>
       <c r="F70" t="n">
-        <v>28.0491</v>
+        <v>0.01</v>
       </c>
       <c r="G70" t="n">
-        <v>44538</v>
+        <v>701.4584919300002</v>
       </c>
       <c r="H70" t="n">
-        <v>45595.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +3134,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>44420</v>
+        <v>45340</v>
       </c>
       <c r="C71" t="n">
-        <v>44420</v>
+        <v>45340</v>
       </c>
       <c r="D71" t="n">
-        <v>44420</v>
+        <v>45340</v>
       </c>
       <c r="E71" t="n">
-        <v>44420</v>
+        <v>45340</v>
       </c>
       <c r="F71" t="n">
-        <v>22.5123818</v>
+        <v>9.7257</v>
       </c>
       <c r="G71" t="n">
-        <v>44463.33333333334</v>
+        <v>691.7327919300002</v>
       </c>
       <c r="H71" t="n">
-        <v>45559.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3169,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>43920</v>
+        <v>45270</v>
       </c>
       <c r="C72" t="n">
-        <v>43930</v>
+        <v>45500</v>
       </c>
       <c r="D72" t="n">
-        <v>43930</v>
+        <v>45510</v>
       </c>
       <c r="E72" t="n">
-        <v>43900</v>
+        <v>45270</v>
       </c>
       <c r="F72" t="n">
-        <v>19.4679</v>
+        <v>7.0121</v>
       </c>
       <c r="G72" t="n">
-        <v>44412</v>
+        <v>698.7448919300002</v>
       </c>
       <c r="H72" t="n">
-        <v>45511.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3204,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>43850</v>
+        <v>45500</v>
       </c>
       <c r="C73" t="n">
-        <v>43850</v>
+        <v>45500</v>
       </c>
       <c r="D73" t="n">
-        <v>43850</v>
+        <v>45500</v>
       </c>
       <c r="E73" t="n">
-        <v>43850</v>
+        <v>45500</v>
       </c>
       <c r="F73" t="n">
-        <v>5.0963</v>
+        <v>1.6888</v>
       </c>
       <c r="G73" t="n">
-        <v>44374.66666666666</v>
+        <v>698.7448919300002</v>
       </c>
       <c r="H73" t="n">
-        <v>45458.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3239,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>43890</v>
+        <v>45500</v>
       </c>
       <c r="C74" t="n">
-        <v>43930</v>
+        <v>45500</v>
       </c>
       <c r="D74" t="n">
-        <v>43930</v>
+        <v>45500</v>
       </c>
       <c r="E74" t="n">
-        <v>43890</v>
+        <v>45500</v>
       </c>
       <c r="F74" t="n">
-        <v>4.4229</v>
+        <v>0.5121</v>
       </c>
       <c r="G74" t="n">
-        <v>44336</v>
+        <v>698.7448919300002</v>
       </c>
       <c r="H74" t="n">
-        <v>45411.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3274,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>43970</v>
+        <v>45500</v>
       </c>
       <c r="C75" t="n">
-        <v>43980</v>
+        <v>45500</v>
       </c>
       <c r="D75" t="n">
-        <v>43980</v>
+        <v>45500</v>
       </c>
       <c r="E75" t="n">
-        <v>43970</v>
+        <v>45500</v>
       </c>
       <c r="F75" t="n">
-        <v>8.4603</v>
+        <v>0.8248</v>
       </c>
       <c r="G75" t="n">
-        <v>44300.66666666666</v>
+        <v>698.7448919300002</v>
       </c>
       <c r="H75" t="n">
-        <v>45372.5</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3309,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>44020</v>
+        <v>45290</v>
       </c>
       <c r="C76" t="n">
-        <v>44020</v>
+        <v>45290</v>
       </c>
       <c r="D76" t="n">
-        <v>44020</v>
+        <v>45290</v>
       </c>
       <c r="E76" t="n">
-        <v>44020</v>
+        <v>45290</v>
       </c>
       <c r="F76" t="n">
-        <v>3.3172</v>
+        <v>3.6631</v>
       </c>
       <c r="G76" t="n">
-        <v>44268</v>
+        <v>695.0817919300002</v>
       </c>
       <c r="H76" t="n">
-        <v>45340.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3344,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>44040</v>
+        <v>45270</v>
       </c>
       <c r="C77" t="n">
-        <v>44100</v>
+        <v>45220</v>
       </c>
       <c r="D77" t="n">
-        <v>44100</v>
+        <v>45270</v>
       </c>
       <c r="E77" t="n">
-        <v>44040</v>
+        <v>45220</v>
       </c>
       <c r="F77" t="n">
-        <v>3.6462</v>
+        <v>8.4604</v>
       </c>
       <c r="G77" t="n">
-        <v>44241.33333333334</v>
+        <v>686.6213919300002</v>
       </c>
       <c r="H77" t="n">
-        <v>45323.5</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3379,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>44670</v>
+        <v>45040</v>
       </c>
       <c r="C78" t="n">
-        <v>44680</v>
+        <v>44330</v>
       </c>
       <c r="D78" t="n">
-        <v>44680</v>
+        <v>45040</v>
       </c>
       <c r="E78" t="n">
-        <v>44670</v>
+        <v>44330</v>
       </c>
       <c r="F78" t="n">
-        <v>28.4617</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>44253.33333333334</v>
+        <v>685.6213919300002</v>
       </c>
       <c r="H78" t="n">
-        <v>45316.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3414,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>44630</v>
+        <v>44340</v>
       </c>
       <c r="C79" t="n">
-        <v>44630</v>
+        <v>44330</v>
       </c>
       <c r="D79" t="n">
-        <v>44630</v>
+        <v>44340</v>
       </c>
       <c r="E79" t="n">
-        <v>44630</v>
+        <v>44330</v>
       </c>
       <c r="F79" t="n">
-        <v>0.23</v>
+        <v>15.4441</v>
       </c>
       <c r="G79" t="n">
-        <v>44275.33333333334</v>
+        <v>685.6213919300002</v>
       </c>
       <c r="H79" t="n">
-        <v>45294.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3449,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>44470</v>
+        <v>45270</v>
       </c>
       <c r="C80" t="n">
-        <v>44470</v>
+        <v>45270</v>
       </c>
       <c r="D80" t="n">
-        <v>44470</v>
+        <v>45270</v>
       </c>
       <c r="E80" t="n">
-        <v>44470</v>
+        <v>45270</v>
       </c>
       <c r="F80" t="n">
-        <v>28.4706</v>
+        <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>44286.66666666666</v>
+        <v>685.7213919300002</v>
       </c>
       <c r="H80" t="n">
-        <v>45269.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3484,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="C81" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="D81" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="E81" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="F81" t="n">
-        <v>5.4669</v>
+        <v>0.1</v>
       </c>
       <c r="G81" t="n">
-        <v>44312.66666666666</v>
+        <v>685.7213919300002</v>
       </c>
       <c r="H81" t="n">
-        <v>45243.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3519,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="C82" t="n">
-        <v>44400</v>
+        <v>45600</v>
       </c>
       <c r="D82" t="n">
-        <v>44400</v>
+        <v>45600</v>
       </c>
       <c r="E82" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="F82" t="n">
-        <v>53</v>
+        <v>0.8</v>
       </c>
       <c r="G82" t="n">
-        <v>44291.33333333334</v>
+        <v>686.5213919300002</v>
       </c>
       <c r="H82" t="n">
-        <v>45215.5</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3554,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>44740</v>
+        <v>45700</v>
       </c>
       <c r="C83" t="n">
-        <v>44740</v>
+        <v>45700</v>
       </c>
       <c r="D83" t="n">
-        <v>44740</v>
+        <v>45700</v>
       </c>
       <c r="E83" t="n">
-        <v>44740</v>
+        <v>45700</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0386</v>
+        <v>0.01</v>
       </c>
       <c r="G83" t="n">
-        <v>44296</v>
+        <v>686.5313919300002</v>
       </c>
       <c r="H83" t="n">
-        <v>45192.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3589,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>43960</v>
+        <v>45660</v>
       </c>
       <c r="C84" t="n">
-        <v>43970</v>
+        <v>45660</v>
       </c>
       <c r="D84" t="n">
-        <v>43970</v>
+        <v>45660</v>
       </c>
       <c r="E84" t="n">
-        <v>43960</v>
+        <v>45660</v>
       </c>
       <c r="F84" t="n">
-        <v>0.719</v>
+        <v>0.02</v>
       </c>
       <c r="G84" t="n">
-        <v>44263.33333333334</v>
+        <v>686.5113919300002</v>
       </c>
       <c r="H84" t="n">
-        <v>45157.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3624,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>44720</v>
+        <v>45540</v>
       </c>
       <c r="C85" t="n">
-        <v>44720</v>
+        <v>45540</v>
       </c>
       <c r="D85" t="n">
-        <v>44720</v>
+        <v>45540</v>
       </c>
       <c r="E85" t="n">
-        <v>44720</v>
+        <v>45540</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1159</v>
+        <v>0.01</v>
       </c>
       <c r="G85" t="n">
-        <v>44282.66666666666</v>
+        <v>686.5013919300002</v>
       </c>
       <c r="H85" t="n">
-        <v>45134.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3659,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>43990</v>
+        <v>44700</v>
       </c>
       <c r="C86" t="n">
-        <v>43850</v>
+        <v>44700</v>
       </c>
       <c r="D86" t="n">
-        <v>43990</v>
+        <v>44700</v>
       </c>
       <c r="E86" t="n">
-        <v>43850</v>
+        <v>44700</v>
       </c>
       <c r="F86" t="n">
-        <v>59.1708</v>
+        <v>17.4929</v>
       </c>
       <c r="G86" t="n">
-        <v>44244.66666666666</v>
+        <v>669.0084919300002</v>
       </c>
       <c r="H86" t="n">
-        <v>45092.5</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3694,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>44640</v>
+        <v>44700</v>
       </c>
       <c r="C87" t="n">
-        <v>44640</v>
+        <v>44410</v>
       </c>
       <c r="D87" t="n">
-        <v>44640</v>
+        <v>44700</v>
       </c>
       <c r="E87" t="n">
-        <v>44640</v>
+        <v>44410</v>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>4.3518</v>
       </c>
       <c r="G87" t="n">
-        <v>44292</v>
+        <v>664.6566919300002</v>
       </c>
       <c r="H87" t="n">
-        <v>45067.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3729,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>43870</v>
+        <v>44500</v>
       </c>
       <c r="C88" t="n">
-        <v>43850</v>
+        <v>44510</v>
       </c>
       <c r="D88" t="n">
-        <v>43870</v>
+        <v>44510</v>
       </c>
       <c r="E88" t="n">
-        <v>43850</v>
+        <v>44400</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4483</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>44292</v>
+        <v>667.6566919300002</v>
       </c>
       <c r="H88" t="n">
-        <v>45029</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3764,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>43920</v>
+        <v>44500</v>
       </c>
       <c r="C89" t="n">
-        <v>43920</v>
+        <v>44510</v>
       </c>
       <c r="D89" t="n">
-        <v>43920</v>
+        <v>44510</v>
       </c>
       <c r="E89" t="n">
-        <v>43920</v>
+        <v>44500</v>
       </c>
       <c r="F89" t="n">
-        <v>7.01</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>44291.33333333334</v>
+        <v>667.6566919300002</v>
       </c>
       <c r="H89" t="n">
-        <v>44991.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,40 +3799,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>43860</v>
+        <v>44510</v>
       </c>
       <c r="C90" t="n">
-        <v>43860</v>
+        <v>44510</v>
       </c>
       <c r="D90" t="n">
-        <v>43860</v>
+        <v>44510</v>
       </c>
       <c r="E90" t="n">
-        <v>43860</v>
+        <v>44510</v>
       </c>
       <c r="F90" t="n">
-        <v>26.0306</v>
+        <v>6.4967</v>
       </c>
       <c r="G90" t="n">
-        <v>44283.33333333334</v>
+        <v>667.6566919300002</v>
       </c>
       <c r="H90" t="n">
-        <v>44941.5</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>44510</v>
       </c>
       <c r="K90" t="n">
-        <v>43920</v>
-      </c>
-      <c r="L90" t="n">
-        <v>43920</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+        <v>44510</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,44 +3838,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>44130</v>
+        <v>44500</v>
       </c>
       <c r="C91" t="n">
-        <v>44140</v>
+        <v>44500</v>
       </c>
       <c r="D91" t="n">
-        <v>44140</v>
+        <v>44500</v>
       </c>
       <c r="E91" t="n">
-        <v>44130</v>
+        <v>44500</v>
       </c>
       <c r="F91" t="n">
-        <v>7.02</v>
+        <v>4</v>
       </c>
       <c r="G91" t="n">
-        <v>44291.33333333334</v>
+        <v>663.6566919300002</v>
       </c>
       <c r="H91" t="n">
-        <v>44894.16666666666</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>44510</v>
       </c>
       <c r="K91" t="n">
-        <v>43860</v>
-      </c>
-      <c r="L91" t="n">
-        <v>43920</v>
-      </c>
-      <c r="M91" t="inlineStr">
+        <v>44510</v>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,44 +3881,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>44140</v>
+        <v>44500</v>
       </c>
       <c r="C92" t="n">
-        <v>44140</v>
+        <v>44500</v>
       </c>
       <c r="D92" t="n">
-        <v>44140</v>
+        <v>44500</v>
       </c>
       <c r="E92" t="n">
-        <v>44140</v>
+        <v>44500</v>
       </c>
       <c r="F92" t="n">
-        <v>4.605</v>
+        <v>0.1</v>
       </c>
       <c r="G92" t="n">
-        <v>44294</v>
+        <v>663.6566919300002</v>
       </c>
       <c r="H92" t="n">
-        <v>44846.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>44140</v>
-      </c>
-      <c r="L92" t="n">
-        <v>43920</v>
-      </c>
-      <c r="M92" t="inlineStr">
+        <v>44510</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,40 +3922,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>44420</v>
+        <v>44500</v>
       </c>
       <c r="C93" t="n">
-        <v>44750</v>
+        <v>44300</v>
       </c>
       <c r="D93" t="n">
-        <v>44750</v>
+        <v>44500</v>
       </c>
       <c r="E93" t="n">
-        <v>44420</v>
+        <v>44300</v>
       </c>
       <c r="F93" t="n">
-        <v>4.6641</v>
+        <v>110</v>
       </c>
       <c r="G93" t="n">
-        <v>44298.66666666666</v>
+        <v>553.6566919300002</v>
       </c>
       <c r="H93" t="n">
-        <v>44809.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>44140</v>
-      </c>
-      <c r="L93" t="n">
-        <v>44140</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,44 +3957,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>45230</v>
+        <v>44300</v>
       </c>
       <c r="C94" t="n">
-        <v>45230</v>
+        <v>44300</v>
       </c>
       <c r="D94" t="n">
-        <v>45230</v>
+        <v>44300</v>
       </c>
       <c r="E94" t="n">
-        <v>45230</v>
+        <v>44010</v>
       </c>
       <c r="F94" t="n">
-        <v>1.4289</v>
+        <v>100.7608</v>
       </c>
       <c r="G94" t="n">
-        <v>44338.66666666666</v>
+        <v>553.6566919300002</v>
       </c>
       <c r="H94" t="n">
-        <v>44780.5</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>44750</v>
-      </c>
-      <c r="L94" t="n">
-        <v>44140</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,42 +3992,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>44750</v>
+        <v>44000</v>
       </c>
       <c r="C95" t="n">
-        <v>44750</v>
+        <v>44010</v>
       </c>
       <c r="D95" t="n">
-        <v>44750</v>
+        <v>44790</v>
       </c>
       <c r="E95" t="n">
-        <v>44750</v>
+        <v>44000</v>
       </c>
       <c r="F95" t="n">
-        <v>3.2271</v>
+        <v>15.8586</v>
       </c>
       <c r="G95" t="n">
-        <v>44357.33333333334</v>
+        <v>537.7980919300002</v>
       </c>
       <c r="H95" t="n">
-        <v>44753.5</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>44140</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +4027,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>44140</v>
+        <v>44010</v>
       </c>
       <c r="C96" t="n">
-        <v>43870</v>
+        <v>44720</v>
       </c>
       <c r="D96" t="n">
-        <v>44140</v>
+        <v>44750</v>
       </c>
       <c r="E96" t="n">
         <v>43870</v>
       </c>
       <c r="F96" t="n">
-        <v>60.8475</v>
+        <v>63.5829</v>
       </c>
       <c r="G96" t="n">
-        <v>44322</v>
+        <v>601.3809919300002</v>
       </c>
       <c r="H96" t="n">
-        <v>44703.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +4062,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>44010</v>
+        <v>43880</v>
       </c>
       <c r="C97" t="n">
-        <v>44000</v>
+        <v>44670</v>
       </c>
       <c r="D97" t="n">
-        <v>44010</v>
+        <v>44670</v>
       </c>
       <c r="E97" t="n">
-        <v>44000</v>
+        <v>43810</v>
       </c>
       <c r="F97" t="n">
-        <v>14.02</v>
+        <v>21.7376</v>
       </c>
       <c r="G97" t="n">
-        <v>44295.33333333334</v>
+        <v>579.6433919300001</v>
       </c>
       <c r="H97" t="n">
-        <v>44698.5</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +4097,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>44000</v>
+        <v>44660</v>
       </c>
       <c r="C98" t="n">
-        <v>44000</v>
+        <v>44460</v>
       </c>
       <c r="D98" t="n">
-        <v>44000</v>
+        <v>44660</v>
       </c>
       <c r="E98" t="n">
-        <v>44000</v>
+        <v>43840</v>
       </c>
       <c r="F98" t="n">
-        <v>35.05</v>
+        <v>2.0379</v>
       </c>
       <c r="G98" t="n">
-        <v>44246</v>
+        <v>577.6054919300001</v>
       </c>
       <c r="H98" t="n">
-        <v>44675.5</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4132,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>43870</v>
+        <v>43830</v>
       </c>
       <c r="C99" t="n">
-        <v>43850</v>
+        <v>44430</v>
       </c>
       <c r="D99" t="n">
-        <v>43870</v>
+        <v>44430</v>
       </c>
       <c r="E99" t="n">
-        <v>43850</v>
+        <v>43830</v>
       </c>
       <c r="F99" t="n">
-        <v>31.1399</v>
+        <v>28.0491</v>
       </c>
       <c r="G99" t="n">
-        <v>44238</v>
+        <v>549.5563919300001</v>
       </c>
       <c r="H99" t="n">
-        <v>44628.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4167,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>43850</v>
+        <v>44420</v>
       </c>
       <c r="C100" t="n">
-        <v>43800</v>
+        <v>44420</v>
       </c>
       <c r="D100" t="n">
-        <v>43850</v>
+        <v>44420</v>
       </c>
       <c r="E100" t="n">
-        <v>43800</v>
+        <v>44420</v>
       </c>
       <c r="F100" t="n">
-        <v>6.9145</v>
+        <v>22.5123818</v>
       </c>
       <c r="G100" t="n">
-        <v>44176.66666666666</v>
+        <v>527.0440101300002</v>
       </c>
       <c r="H100" t="n">
-        <v>44585</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4202,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>43700</v>
+        <v>43920</v>
       </c>
       <c r="C101" t="n">
-        <v>43700</v>
+        <v>43930</v>
       </c>
       <c r="D101" t="n">
-        <v>43700</v>
+        <v>43930</v>
       </c>
       <c r="E101" t="n">
-        <v>43700</v>
+        <v>43900</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1</v>
+        <v>19.4679</v>
       </c>
       <c r="G101" t="n">
-        <v>44166.66666666666</v>
+        <v>507.5761101300002</v>
       </c>
       <c r="H101" t="n">
-        <v>44544.5</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,40 +4237,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>43710</v>
+        <v>43850</v>
       </c>
       <c r="C102" t="n">
-        <v>43710</v>
+        <v>43850</v>
       </c>
       <c r="D102" t="n">
-        <v>43710</v>
+        <v>43850</v>
       </c>
       <c r="E102" t="n">
-        <v>43710</v>
+        <v>43850</v>
       </c>
       <c r="F102" t="n">
-        <v>9</v>
+        <v>5.0963</v>
       </c>
       <c r="G102" t="n">
-        <v>44104.66666666666</v>
+        <v>502.4798101300002</v>
       </c>
       <c r="H102" t="n">
-        <v>44517.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>43700</v>
-      </c>
-      <c r="L102" t="n">
-        <v>43700</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,44 +4272,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>43710</v>
+        <v>43890</v>
       </c>
       <c r="C103" t="n">
-        <v>43710</v>
+        <v>43930</v>
       </c>
       <c r="D103" t="n">
-        <v>43710</v>
+        <v>43930</v>
       </c>
       <c r="E103" t="n">
-        <v>43710</v>
+        <v>43890</v>
       </c>
       <c r="F103" t="n">
-        <v>1.7188</v>
+        <v>4.4229</v>
       </c>
       <c r="G103" t="n">
-        <v>44095.33333333334</v>
+        <v>506.9027101300002</v>
       </c>
       <c r="H103" t="n">
-        <v>44487.5</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>43710</v>
-      </c>
-      <c r="L103" t="n">
-        <v>43700</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4364,42 +4307,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>43700</v>
+        <v>43970</v>
       </c>
       <c r="C104" t="n">
-        <v>43700</v>
+        <v>43980</v>
       </c>
       <c r="D104" t="n">
-        <v>43700</v>
+        <v>43980</v>
       </c>
       <c r="E104" t="n">
-        <v>43700</v>
+        <v>43970</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>8.4603</v>
       </c>
       <c r="G104" t="n">
-        <v>44080.66666666666</v>
+        <v>515.3630101300002</v>
       </c>
       <c r="H104" t="n">
-        <v>44457.5</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>43700</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>43930</v>
+      </c>
+      <c r="K104" t="n">
+        <v>43930</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,44 +4346,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>43700</v>
+        <v>44020</v>
       </c>
       <c r="C105" t="n">
-        <v>43570</v>
+        <v>44020</v>
       </c>
       <c r="D105" t="n">
-        <v>43700</v>
+        <v>44020</v>
       </c>
       <c r="E105" t="n">
-        <v>43570</v>
+        <v>44020</v>
       </c>
       <c r="F105" t="n">
-        <v>9.2445</v>
+        <v>3.3172</v>
       </c>
       <c r="G105" t="n">
-        <v>44061.33333333334</v>
+        <v>518.6802101300002</v>
       </c>
       <c r="H105" t="n">
-        <v>44425.33333333334</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>43980</v>
       </c>
       <c r="K105" t="n">
-        <v>43700</v>
-      </c>
-      <c r="L105" t="n">
-        <v>43700</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+        <v>43930</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,44 +4389,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>43570</v>
+        <v>44040</v>
       </c>
       <c r="C106" t="n">
-        <v>43550</v>
+        <v>44100</v>
       </c>
       <c r="D106" t="n">
-        <v>43570</v>
+        <v>44100</v>
       </c>
       <c r="E106" t="n">
-        <v>43550</v>
+        <v>44040</v>
       </c>
       <c r="F106" t="n">
-        <v>9.7545</v>
+        <v>3.6462</v>
       </c>
       <c r="G106" t="n">
-        <v>44022</v>
+        <v>522.3264101300002</v>
       </c>
       <c r="H106" t="n">
-        <v>44392.83333333334</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>44020</v>
       </c>
       <c r="K106" t="n">
-        <v>43570</v>
-      </c>
-      <c r="L106" t="n">
-        <v>43700</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>43930</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,44 +4432,1222 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>44670</v>
+      </c>
+      <c r="C107" t="n">
+        <v>44680</v>
+      </c>
+      <c r="D107" t="n">
+        <v>44680</v>
+      </c>
+      <c r="E107" t="n">
+        <v>44670</v>
+      </c>
+      <c r="F107" t="n">
+        <v>28.4617</v>
+      </c>
+      <c r="G107" t="n">
+        <v>550.7881101300002</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>44100</v>
+      </c>
+      <c r="K107" t="n">
+        <v>44100</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>44630</v>
+      </c>
+      <c r="C108" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D108" t="n">
+        <v>44630</v>
+      </c>
+      <c r="E108" t="n">
+        <v>44630</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G108" t="n">
+        <v>550.5581101300002</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>44100</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C109" t="n">
+        <v>44470</v>
+      </c>
+      <c r="D109" t="n">
+        <v>44470</v>
+      </c>
+      <c r="E109" t="n">
+        <v>44470</v>
+      </c>
+      <c r="F109" t="n">
+        <v>28.4706</v>
+      </c>
+      <c r="G109" t="n">
+        <v>522.0875101300002</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>44630</v>
+      </c>
+      <c r="K109" t="n">
+        <v>44100</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C110" t="n">
+        <v>44400</v>
+      </c>
+      <c r="D110" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E110" t="n">
+        <v>44400</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5.4669</v>
+      </c>
+      <c r="G110" t="n">
+        <v>516.6206101300002</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C111" t="n">
+        <v>44400</v>
+      </c>
+      <c r="D111" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E111" t="n">
+        <v>44400</v>
+      </c>
+      <c r="F111" t="n">
+        <v>53</v>
+      </c>
+      <c r="G111" t="n">
+        <v>516.6206101300002</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>44400</v>
+      </c>
+      <c r="K111" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C112" t="n">
+        <v>44740</v>
+      </c>
+      <c r="D112" t="n">
+        <v>44740</v>
+      </c>
+      <c r="E112" t="n">
+        <v>44740</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0386</v>
+      </c>
+      <c r="G112" t="n">
+        <v>516.6592101300001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>43960</v>
+      </c>
+      <c r="C113" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D113" t="n">
+        <v>43970</v>
+      </c>
+      <c r="E113" t="n">
+        <v>43960</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="G113" t="n">
+        <v>515.9402101300001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>44720</v>
+      </c>
+      <c r="C114" t="n">
+        <v>44720</v>
+      </c>
+      <c r="D114" t="n">
+        <v>44720</v>
+      </c>
+      <c r="E114" t="n">
+        <v>44720</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="G114" t="n">
+        <v>516.0561101300001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>43990</v>
+      </c>
+      <c r="C115" t="n">
+        <v>43850</v>
+      </c>
+      <c r="D115" t="n">
+        <v>43990</v>
+      </c>
+      <c r="E115" t="n">
+        <v>43850</v>
+      </c>
+      <c r="F115" t="n">
+        <v>59.1708</v>
+      </c>
+      <c r="G115" t="n">
+        <v>456.8853101300001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C116" t="n">
+        <v>44640</v>
+      </c>
+      <c r="D116" t="n">
+        <v>44640</v>
+      </c>
+      <c r="E116" t="n">
+        <v>44640</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8</v>
+      </c>
+      <c r="G116" t="n">
+        <v>464.8853101300001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>43870</v>
+      </c>
+      <c r="C117" t="n">
+        <v>43850</v>
+      </c>
+      <c r="D117" t="n">
+        <v>43870</v>
+      </c>
+      <c r="E117" t="n">
+        <v>43850</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.4483</v>
+      </c>
+      <c r="G117" t="n">
+        <v>464.4370101300001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>43920</v>
+      </c>
+      <c r="C118" t="n">
+        <v>43920</v>
+      </c>
+      <c r="D118" t="n">
+        <v>43920</v>
+      </c>
+      <c r="E118" t="n">
+        <v>43920</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="G118" t="n">
+        <v>471.4470101300001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>43860</v>
+      </c>
+      <c r="C119" t="n">
+        <v>43860</v>
+      </c>
+      <c r="D119" t="n">
+        <v>43860</v>
+      </c>
+      <c r="E119" t="n">
+        <v>43860</v>
+      </c>
+      <c r="F119" t="n">
+        <v>26.0306</v>
+      </c>
+      <c r="G119" t="n">
+        <v>445.4164101300001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>44130</v>
+      </c>
+      <c r="C120" t="n">
+        <v>44140</v>
+      </c>
+      <c r="D120" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E120" t="n">
+        <v>44130</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="G120" t="n">
+        <v>452.4364101300001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>44140</v>
+      </c>
+      <c r="C121" t="n">
+        <v>44140</v>
+      </c>
+      <c r="D121" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E121" t="n">
+        <v>44140</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4.605</v>
+      </c>
+      <c r="G121" t="n">
+        <v>452.4364101300001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>44420</v>
+      </c>
+      <c r="C122" t="n">
+        <v>44750</v>
+      </c>
+      <c r="D122" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E122" t="n">
+        <v>44420</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4.6641</v>
+      </c>
+      <c r="G122" t="n">
+        <v>457.1005101300001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C123" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D123" t="n">
+        <v>45230</v>
+      </c>
+      <c r="E123" t="n">
+        <v>45230</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.4289</v>
+      </c>
+      <c r="G123" t="n">
+        <v>458.5294101300001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>44750</v>
+      </c>
+      <c r="C124" t="n">
+        <v>44750</v>
+      </c>
+      <c r="D124" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E124" t="n">
+        <v>44750</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3.2271</v>
+      </c>
+      <c r="G124" t="n">
+        <v>455.3023101300001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>44140</v>
+      </c>
+      <c r="C125" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D125" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E125" t="n">
+        <v>43870</v>
+      </c>
+      <c r="F125" t="n">
+        <v>60.8475</v>
+      </c>
+      <c r="G125" t="n">
+        <v>394.4548101300001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>44010</v>
+      </c>
+      <c r="C126" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D126" t="n">
+        <v>44010</v>
+      </c>
+      <c r="E126" t="n">
+        <v>44000</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="G126" t="n">
+        <v>408.47481013</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>44000</v>
+      </c>
+      <c r="C127" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D127" t="n">
+        <v>44000</v>
+      </c>
+      <c r="E127" t="n">
+        <v>44000</v>
+      </c>
+      <c r="F127" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="G127" t="n">
+        <v>408.47481013</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>43870</v>
+      </c>
+      <c r="C128" t="n">
+        <v>43850</v>
+      </c>
+      <c r="D128" t="n">
+        <v>43870</v>
+      </c>
+      <c r="E128" t="n">
+        <v>43850</v>
+      </c>
+      <c r="F128" t="n">
+        <v>31.1399</v>
+      </c>
+      <c r="G128" t="n">
+        <v>377.33491013</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>43850</v>
+      </c>
+      <c r="C129" t="n">
+        <v>43800</v>
+      </c>
+      <c r="D129" t="n">
+        <v>43850</v>
+      </c>
+      <c r="E129" t="n">
+        <v>43800</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6.9145</v>
+      </c>
+      <c r="G129" t="n">
+        <v>370.4204101300001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>43700</v>
+      </c>
+      <c r="C130" t="n">
+        <v>43700</v>
+      </c>
+      <c r="D130" t="n">
+        <v>43700</v>
+      </c>
+      <c r="E130" t="n">
+        <v>43700</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>370.32041013</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>43710</v>
+      </c>
+      <c r="C131" t="n">
+        <v>43710</v>
+      </c>
+      <c r="D131" t="n">
+        <v>43710</v>
+      </c>
+      <c r="E131" t="n">
+        <v>43710</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9</v>
+      </c>
+      <c r="G131" t="n">
+        <v>379.32041013</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>43710</v>
+      </c>
+      <c r="C132" t="n">
+        <v>43710</v>
+      </c>
+      <c r="D132" t="n">
+        <v>43710</v>
+      </c>
+      <c r="E132" t="n">
+        <v>43710</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.7188</v>
+      </c>
+      <c r="G132" t="n">
+        <v>379.32041013</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>43700</v>
+      </c>
+      <c r="C133" t="n">
+        <v>43700</v>
+      </c>
+      <c r="D133" t="n">
+        <v>43700</v>
+      </c>
+      <c r="E133" t="n">
+        <v>43700</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>378.32041013</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>43700</v>
+      </c>
+      <c r="C134" t="n">
+        <v>43570</v>
+      </c>
+      <c r="D134" t="n">
+        <v>43700</v>
+      </c>
+      <c r="E134" t="n">
+        <v>43570</v>
+      </c>
+      <c r="F134" t="n">
+        <v>9.2445</v>
+      </c>
+      <c r="G134" t="n">
+        <v>369.07591013</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>43570</v>
+      </c>
+      <c r="C135" t="n">
+        <v>43550</v>
+      </c>
+      <c r="D135" t="n">
+        <v>43570</v>
+      </c>
+      <c r="E135" t="n">
+        <v>43550</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9.7545</v>
+      </c>
+      <c r="G135" t="n">
+        <v>359.32141013</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>43570</v>
+      </c>
+      <c r="K135" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
         <v>44060</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C136" t="n">
         <v>44050</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D136" t="n">
         <v>44060</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E136" t="n">
         <v>44050</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F136" t="n">
         <v>0.1143</v>
       </c>
-      <c r="G107" t="n">
-        <v>44016</v>
-      </c>
-      <c r="H107" t="n">
-        <v>44372.16666666666</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>43550</v>
-      </c>
-      <c r="L107" t="n">
-        <v>43700</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="G136" t="n">
+        <v>359.43571013</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>44400</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-26 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>0.1941</v>
       </c>
       <c r="G2" t="n">
-        <v>601.4312415200002</v>
+        <v>44834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>601.2312415200001</v>
+        <v>44836</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>0.1942</v>
       </c>
       <c r="G4" t="n">
-        <v>601.4254415200002</v>
+        <v>44818</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>2.8869</v>
       </c>
       <c r="G5" t="n">
-        <v>598.5385415200002</v>
+        <v>44548</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>13.2878</v>
       </c>
       <c r="G6" t="n">
-        <v>611.8263415200001</v>
+        <v>44508</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>18.2913</v>
       </c>
       <c r="G7" t="n">
-        <v>611.8263415200001</v>
+        <v>44468</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>611.8263415200001</v>
+        <v>44690</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>97.6909</v>
       </c>
       <c r="G9" t="n">
-        <v>709.5172415200002</v>
+        <v>44680</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>0.767</v>
       </c>
       <c r="G10" t="n">
-        <v>710.2842415200003</v>
+        <v>44950</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>7.5041</v>
       </c>
       <c r="G11" t="n">
-        <v>710.2842415200003</v>
+        <v>44990</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>0.2752</v>
       </c>
       <c r="G12" t="n">
-        <v>710.2842415200003</v>
+        <v>45030</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>4.2158</v>
       </c>
       <c r="G13" t="n">
-        <v>710.2842415200003</v>
+        <v>45070</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>0.3</v>
       </c>
       <c r="G14" t="n">
-        <v>709.9842415200003</v>
+        <v>45042</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -886,6 +903,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -907,7 +925,7 @@
         <v>19.9435</v>
       </c>
       <c r="G15" t="n">
-        <v>729.9277415200003</v>
+        <v>45022</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -927,6 +945,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -948,7 +967,7 @@
         <v>3.7801</v>
       </c>
       <c r="G16" t="n">
-        <v>733.7078415200002</v>
+        <v>45142</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -968,6 +987,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -989,7 +1009,7 @@
         <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>733.7078415200002</v>
+        <v>45262</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1009,6 +1029,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1030,7 +1051,7 @@
         <v>0.6</v>
       </c>
       <c r="G18" t="n">
-        <v>733.1078415200002</v>
+        <v>45244</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,6 +1071,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1071,7 +1093,7 @@
         <v>12.35645041</v>
       </c>
       <c r="G19" t="n">
-        <v>745.4642919300002</v>
+        <v>45442</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1091,6 +1113,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1112,7 +1135,7 @@
         <v>4.959e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>745.4642919300002</v>
+        <v>45602</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1132,6 +1155,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1153,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>744.4642919300002</v>
+        <v>45536</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1173,6 +1197,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1194,7 +1219,7 @@
         <v>2.3553</v>
       </c>
       <c r="G22" t="n">
-        <v>746.8195919300002</v>
+        <v>45480</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1214,6 +1239,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1235,7 +1261,7 @@
         <v>0.6</v>
       </c>
       <c r="G23" t="n">
-        <v>747.4195919300003</v>
+        <v>45564</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1255,6 +1281,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1276,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>748.4195919300003</v>
+        <v>45564</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1296,6 +1323,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1317,7 +1345,7 @@
         <v>29.8095</v>
       </c>
       <c r="G25" t="n">
-        <v>778.2290919300002</v>
+        <v>45722</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1337,6 +1365,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1358,7 +1387,7 @@
         <v>6.5392</v>
       </c>
       <c r="G26" t="n">
-        <v>771.6898919300002</v>
+        <v>45868</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1378,6 +1407,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1399,7 +1429,7 @@
         <v>1.2282</v>
       </c>
       <c r="G27" t="n">
-        <v>772.9180919300002</v>
+        <v>46102</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1419,6 +1449,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1440,7 +1471,7 @@
         <v>6.2027</v>
       </c>
       <c r="G28" t="n">
-        <v>772.9180919300002</v>
+        <v>46334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1460,6 +1491,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1481,7 +1513,7 @@
         <v>5.3408</v>
       </c>
       <c r="G29" t="n">
-        <v>778.2588919300001</v>
+        <v>46494</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1501,6 +1533,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1522,7 +1555,7 @@
         <v>0.1949</v>
       </c>
       <c r="G30" t="n">
-        <v>778.0639919300002</v>
+        <v>46494</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1542,6 +1575,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1563,7 +1597,7 @@
         <v>9.892200000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>778.0639919300002</v>
+        <v>46592</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1583,6 +1617,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1604,7 +1639,7 @@
         <v>83.57940000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>694.4845919300002</v>
+        <v>46400</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1624,6 +1659,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1645,7 +1681,7 @@
         <v>2.4163</v>
       </c>
       <c r="G33" t="n">
-        <v>696.9008919300002</v>
+        <v>46440</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1665,6 +1701,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1686,7 +1723,7 @@
         <v>1.8939</v>
       </c>
       <c r="G34" t="n">
-        <v>696.9008919300002</v>
+        <v>46478</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1706,6 +1743,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1727,7 +1765,7 @@
         <v>10.6192</v>
       </c>
       <c r="G35" t="n">
-        <v>686.2816919300002</v>
+        <v>46444</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1747,6 +1785,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1768,7 +1807,7 @@
         <v>43.128</v>
       </c>
       <c r="G36" t="n">
-        <v>643.1536919300002</v>
+        <v>45986</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1788,6 +1827,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1809,7 +1849,7 @@
         <v>3.2631</v>
       </c>
       <c r="G37" t="n">
-        <v>646.4167919300002</v>
+        <v>46138</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1829,6 +1869,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1850,7 +1891,7 @@
         <v>0.4</v>
       </c>
       <c r="G38" t="n">
-        <v>646.8167919300001</v>
+        <v>46060</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1870,6 +1911,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1891,7 +1933,7 @@
         <v>7.4899</v>
       </c>
       <c r="G39" t="n">
-        <v>639.3268919300001</v>
+        <v>45962</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1911,6 +1953,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1932,7 +1975,7 @@
         <v>9.1251</v>
       </c>
       <c r="G40" t="n">
-        <v>648.4519919300001</v>
+        <v>45994</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1952,6 +1995,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1973,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>652.4519919300001</v>
+        <v>46502</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1993,6 +2037,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2014,7 +2059,7 @@
         <v>3.1615</v>
       </c>
       <c r="G42" t="n">
-        <v>655.6134919300001</v>
+        <v>46624</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2034,6 +2079,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2055,7 +2101,7 @@
         <v>2.4819</v>
       </c>
       <c r="G43" t="n">
-        <v>653.1315919300001</v>
+        <v>46692</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2075,6 +2121,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2096,7 +2143,7 @@
         <v>1.8327</v>
       </c>
       <c r="G44" t="n">
-        <v>651.2988919300001</v>
+        <v>46700</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2116,6 +2163,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2137,7 +2185,7 @@
         <v>10.4606</v>
       </c>
       <c r="G45" t="n">
-        <v>640.8382919300001</v>
+        <v>46574</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2157,6 +2205,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2178,7 +2227,7 @@
         <v>0.5649</v>
       </c>
       <c r="G46" t="n">
-        <v>640.2733919300001</v>
+        <v>46228</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2198,6 +2247,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2219,7 +2269,7 @@
         <v>1.2639</v>
       </c>
       <c r="G47" t="n">
-        <v>641.5372919300002</v>
+        <v>45852</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2239,6 +2289,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2260,7 +2311,7 @@
         <v>0.0195</v>
       </c>
       <c r="G48" t="n">
-        <v>641.5567919300001</v>
+        <v>45686</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2280,6 +2331,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2301,7 +2353,7 @@
         <v>0.1262</v>
       </c>
       <c r="G49" t="n">
-        <v>641.6829919300002</v>
+        <v>45612</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2321,6 +2373,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2342,7 +2395,7 @@
         <v>0.0497</v>
       </c>
       <c r="G50" t="n">
-        <v>641.6829919300002</v>
+        <v>45616</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2362,6 +2415,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2383,7 +2437,7 @@
         <v>9.0924</v>
       </c>
       <c r="G51" t="n">
-        <v>650.7753919300002</v>
+        <v>45812</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2403,6 +2457,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2424,7 +2479,7 @@
         <v>80.65989999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>731.4352919300002</v>
+        <v>46010</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2444,6 +2499,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2465,7 +2521,7 @@
         <v>0.5195</v>
       </c>
       <c r="G53" t="n">
-        <v>730.9157919300002</v>
+        <v>46048</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2485,6 +2541,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2506,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>730.9157919300002</v>
+        <v>46074</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2526,6 +2583,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2547,7 +2605,7 @@
         <v>14.8512</v>
       </c>
       <c r="G55" t="n">
-        <v>745.7669919300001</v>
+        <v>46150</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2567,6 +2625,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2588,7 +2647,7 @@
         <v>9.994899999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>735.7720919300001</v>
+        <v>46162</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2608,6 +2667,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2629,7 +2689,7 @@
         <v>1.0029</v>
       </c>
       <c r="G57" t="n">
-        <v>735.7720919300001</v>
+        <v>46170</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2649,6 +2709,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2670,7 +2731,7 @@
         <v>4.1973</v>
       </c>
       <c r="G58" t="n">
-        <v>735.7720919300001</v>
+        <v>46180</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2690,6 +2751,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2711,13 +2773,13 @@
         <v>3.1547</v>
       </c>
       <c r="G59" t="n">
-        <v>738.9267919300001</v>
+        <v>46336</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
@@ -2725,11 +2787,14 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>1.034467849223947</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.030857142857143</v>
       </c>
     </row>
     <row r="60">
@@ -2752,26 +2817,21 @@
         <v>0.1515</v>
       </c>
       <c r="G60" t="n">
-        <v>739.0782919300002</v>
+        <v>46462</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2793,7 +2853,7 @@
         <v>0.1408</v>
       </c>
       <c r="G61" t="n">
-        <v>739.0782919300002</v>
+        <v>46628</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2802,17 +2862,12 @@
         <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>1.036685144124169</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2834,7 +2889,7 @@
         <v>0.0663</v>
       </c>
       <c r="G62" t="n">
-        <v>739.0782919300002</v>
+        <v>46794</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2848,6 +2903,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2869,7 +2925,7 @@
         <v>0.1245</v>
       </c>
       <c r="G63" t="n">
-        <v>739.0782919300002</v>
+        <v>46960</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2883,6 +2939,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2904,7 +2961,7 @@
         <v>13.2979</v>
       </c>
       <c r="G64" t="n">
-        <v>725.7803919300002</v>
+        <v>46858</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2918,6 +2975,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2939,7 +2997,7 @@
         <v>0.0375</v>
       </c>
       <c r="G65" t="n">
-        <v>725.8178919300002</v>
+        <v>46834</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2953,6 +3011,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2974,7 +3033,7 @@
         <v>27.6937</v>
       </c>
       <c r="G66" t="n">
-        <v>698.1241919300002</v>
+        <v>46300</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2988,6 +3047,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3009,7 +3069,7 @@
         <v>3.1043</v>
       </c>
       <c r="G67" t="n">
-        <v>701.2284919300001</v>
+        <v>45980</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3023,6 +3083,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3044,13 +3105,13 @@
         <v>0.25</v>
       </c>
       <c r="G68" t="n">
-        <v>701.4784919300001</v>
+        <v>45920</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -3058,6 +3119,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3079,13 +3141,13 @@
         <v>0.01</v>
       </c>
       <c r="G69" t="n">
-        <v>701.4684919300001</v>
+        <v>45926</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3093,6 +3155,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3114,13 +3177,13 @@
         <v>0.01</v>
       </c>
       <c r="G70" t="n">
-        <v>701.4584919300002</v>
+        <v>45780</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3128,6 +3191,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3149,13 +3213,13 @@
         <v>9.7257</v>
       </c>
       <c r="G71" t="n">
-        <v>691.7327919300002</v>
+        <v>45986</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3163,6 +3227,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3184,7 +3249,7 @@
         <v>7.0121</v>
       </c>
       <c r="G72" t="n">
-        <v>698.7448919300002</v>
+        <v>46010</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3198,6 +3263,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3219,7 +3285,7 @@
         <v>1.6888</v>
       </c>
       <c r="G73" t="n">
-        <v>698.7448919300002</v>
+        <v>45774</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3233,6 +3299,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3254,7 +3321,7 @@
         <v>0.5121</v>
       </c>
       <c r="G74" t="n">
-        <v>698.7448919300002</v>
+        <v>45594</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3268,6 +3335,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3289,7 +3357,7 @@
         <v>0.8248</v>
       </c>
       <c r="G75" t="n">
-        <v>698.7448919300002</v>
+        <v>45468</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3303,6 +3371,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3324,7 +3393,7 @@
         <v>3.6631</v>
       </c>
       <c r="G76" t="n">
-        <v>695.0817919300002</v>
+        <v>45458</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3338,6 +3407,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3359,7 +3429,7 @@
         <v>8.4604</v>
       </c>
       <c r="G77" t="n">
-        <v>686.6213919300002</v>
+        <v>45402</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3373,6 +3443,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3394,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>685.6213919300002</v>
+        <v>45168</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3408,6 +3479,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3429,7 +3501,7 @@
         <v>15.4441</v>
       </c>
       <c r="G79" t="n">
-        <v>685.6213919300002</v>
+        <v>44934</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3443,6 +3515,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3464,7 +3537,7 @@
         <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>685.7213919300002</v>
+        <v>44888</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3478,6 +3551,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3499,7 +3573,7 @@
         <v>0.1</v>
       </c>
       <c r="G81" t="n">
-        <v>685.7213919300002</v>
+        <v>44884</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3513,6 +3587,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3534,7 +3609,7 @@
         <v>0.8</v>
       </c>
       <c r="G82" t="n">
-        <v>686.5213919300002</v>
+        <v>44960</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3548,6 +3623,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3569,7 +3645,7 @@
         <v>0.01</v>
       </c>
       <c r="G83" t="n">
-        <v>686.5313919300002</v>
+        <v>45234</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3583,6 +3659,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3604,7 +3681,7 @@
         <v>0.02</v>
       </c>
       <c r="G84" t="n">
-        <v>686.5113919300002</v>
+        <v>45500</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3618,6 +3695,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3639,7 +3717,7 @@
         <v>0.01</v>
       </c>
       <c r="G85" t="n">
-        <v>686.5013919300002</v>
+        <v>45554</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3653,6 +3731,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3674,7 +3753,7 @@
         <v>17.4929</v>
       </c>
       <c r="G86" t="n">
-        <v>669.0084919300002</v>
+        <v>45440</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3688,6 +3767,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3709,7 +3789,7 @@
         <v>4.3518</v>
       </c>
       <c r="G87" t="n">
-        <v>664.6566919300002</v>
+        <v>45202</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3723,6 +3803,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3744,7 +3825,7 @@
         <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>667.6566919300002</v>
+        <v>44964</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3758,6 +3839,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3779,7 +3861,7 @@
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>667.6566919300002</v>
+        <v>44734</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3793,6 +3875,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3814,7 +3897,7 @@
         <v>6.4967</v>
       </c>
       <c r="G90" t="n">
-        <v>667.6566919300002</v>
+        <v>44528</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -3832,6 +3915,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3853,7 +3937,7 @@
         <v>4</v>
       </c>
       <c r="G91" t="n">
-        <v>663.6566919300002</v>
+        <v>44488</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3875,6 +3959,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3896,7 +3981,7 @@
         <v>0.1</v>
       </c>
       <c r="G92" t="n">
-        <v>663.6566919300002</v>
+        <v>44506</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3916,6 +4001,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3937,7 +4023,7 @@
         <v>110</v>
       </c>
       <c r="G93" t="n">
-        <v>553.6566919300002</v>
+        <v>44464</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3951,6 +4037,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3972,7 +4059,7 @@
         <v>100.7608</v>
       </c>
       <c r="G94" t="n">
-        <v>553.6566919300002</v>
+        <v>44422</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3986,6 +4073,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4007,7 +4095,7 @@
         <v>15.8586</v>
       </c>
       <c r="G95" t="n">
-        <v>537.7980919300002</v>
+        <v>44322</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4021,6 +4109,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4042,7 +4131,7 @@
         <v>63.5829</v>
       </c>
       <c r="G96" t="n">
-        <v>601.3809919300002</v>
+        <v>44366</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4056,6 +4145,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4077,7 +4167,7 @@
         <v>21.7376</v>
       </c>
       <c r="G97" t="n">
-        <v>579.6433919300001</v>
+        <v>44400</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4091,6 +4181,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4112,7 +4203,7 @@
         <v>2.0379</v>
       </c>
       <c r="G98" t="n">
-        <v>577.6054919300001</v>
+        <v>44432</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4126,6 +4217,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4147,7 +4239,7 @@
         <v>28.0491</v>
       </c>
       <c r="G99" t="n">
-        <v>549.5563919300001</v>
+        <v>44458</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4161,6 +4253,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4182,7 +4275,7 @@
         <v>22.5123818</v>
       </c>
       <c r="G100" t="n">
-        <v>527.0440101300002</v>
+        <v>44540</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4196,6 +4289,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4217,7 +4311,7 @@
         <v>19.4679</v>
       </c>
       <c r="G101" t="n">
-        <v>507.5761101300002</v>
+        <v>44382</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4231,6 +4325,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4252,7 +4347,7 @@
         <v>5.0963</v>
       </c>
       <c r="G102" t="n">
-        <v>502.4798101300002</v>
+        <v>44218</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4266,6 +4361,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4287,7 +4383,7 @@
         <v>4.4229</v>
       </c>
       <c r="G103" t="n">
-        <v>506.9027101300002</v>
+        <v>44112</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4301,6 +4397,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4322,7 +4419,7 @@
         <v>8.4603</v>
       </c>
       <c r="G104" t="n">
-        <v>515.3630101300002</v>
+        <v>44022</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4340,6 +4437,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4361,7 +4459,7 @@
         <v>3.3172</v>
       </c>
       <c r="G105" t="n">
-        <v>518.6802101300002</v>
+        <v>43942</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -4383,6 +4481,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4404,7 +4503,7 @@
         <v>3.6462</v>
       </c>
       <c r="G106" t="n">
-        <v>522.3264101300002</v>
+        <v>43976</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4426,6 +4525,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4447,7 +4547,7 @@
         <v>28.4617</v>
       </c>
       <c r="G107" t="n">
-        <v>550.7881101300002</v>
+        <v>44142</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4465,6 +4565,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4486,7 +4587,7 @@
         <v>0.23</v>
       </c>
       <c r="G108" t="n">
-        <v>550.5581101300002</v>
+        <v>44282</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4506,6 +4607,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4527,7 +4629,7 @@
         <v>28.4706</v>
       </c>
       <c r="G109" t="n">
-        <v>522.0875101300002</v>
+        <v>44380</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -4549,6 +4651,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4570,7 +4673,7 @@
         <v>5.4669</v>
       </c>
       <c r="G110" t="n">
-        <v>516.6206101300002</v>
+        <v>44456</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4584,6 +4687,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4605,7 +4709,7 @@
         <v>53</v>
       </c>
       <c r="G111" t="n">
-        <v>516.6206101300002</v>
+        <v>44516</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4623,6 +4727,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4644,7 +4749,7 @@
         <v>0.0386</v>
       </c>
       <c r="G112" t="n">
-        <v>516.6592101300001</v>
+        <v>44528</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4664,6 +4769,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4685,7 +4791,7 @@
         <v>0.719</v>
       </c>
       <c r="G113" t="n">
-        <v>515.9402101300001</v>
+        <v>44396</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4705,6 +4811,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4726,7 +4833,7 @@
         <v>0.1159</v>
       </c>
       <c r="G114" t="n">
-        <v>516.0561101300001</v>
+        <v>44446</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4746,6 +4853,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4767,7 +4875,7 @@
         <v>59.1708</v>
       </c>
       <c r="G115" t="n">
-        <v>456.8853101300001</v>
+        <v>44336</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4787,6 +4895,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4808,7 +4917,7 @@
         <v>8</v>
       </c>
       <c r="G116" t="n">
-        <v>464.8853101300001</v>
+        <v>44384</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4828,6 +4937,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4849,7 +4959,7 @@
         <v>0.4483</v>
       </c>
       <c r="G117" t="n">
-        <v>464.4370101300001</v>
+        <v>44206</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4869,6 +4979,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4890,7 +5001,7 @@
         <v>7.01</v>
       </c>
       <c r="G118" t="n">
-        <v>471.4470101300001</v>
+        <v>44196</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4910,6 +5021,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4931,7 +5043,7 @@
         <v>26.0306</v>
       </c>
       <c r="G119" t="n">
-        <v>445.4164101300001</v>
+        <v>44024</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4951,6 +5063,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4972,7 +5085,7 @@
         <v>7.02</v>
       </c>
       <c r="G120" t="n">
-        <v>452.4364101300001</v>
+        <v>44082</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4992,6 +5105,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5013,7 +5127,7 @@
         <v>4.605</v>
       </c>
       <c r="G121" t="n">
-        <v>452.4364101300001</v>
+        <v>43982</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5033,6 +5147,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5054,7 +5169,7 @@
         <v>4.6641</v>
       </c>
       <c r="G122" t="n">
-        <v>457.1005101300001</v>
+        <v>44162</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5074,6 +5189,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5095,7 +5211,7 @@
         <v>1.4289</v>
       </c>
       <c r="G123" t="n">
-        <v>458.5294101300001</v>
+        <v>44424</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5115,6 +5231,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5136,7 +5253,7 @@
         <v>3.2271</v>
       </c>
       <c r="G124" t="n">
-        <v>455.3023101300001</v>
+        <v>44602</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5156,6 +5273,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5177,7 +5295,7 @@
         <v>60.8475</v>
       </c>
       <c r="G125" t="n">
-        <v>394.4548101300001</v>
+        <v>44548</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5197,6 +5315,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5218,7 +5337,7 @@
         <v>14.02</v>
       </c>
       <c r="G126" t="n">
-        <v>408.47481013</v>
+        <v>44520</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5238,6 +5357,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5259,7 +5379,7 @@
         <v>35.05</v>
       </c>
       <c r="G127" t="n">
-        <v>408.47481013</v>
+        <v>44370</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5279,6 +5399,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5300,7 +5421,7 @@
         <v>31.1399</v>
       </c>
       <c r="G128" t="n">
-        <v>377.33491013</v>
+        <v>44094</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5320,6 +5441,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5341,7 +5463,7 @@
         <v>6.9145</v>
       </c>
       <c r="G129" t="n">
-        <v>370.4204101300001</v>
+        <v>43904</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5361,6 +5483,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5382,7 +5505,7 @@
         <v>0.1</v>
       </c>
       <c r="G130" t="n">
-        <v>370.32041013</v>
+        <v>43870</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5402,6 +5525,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5423,7 +5547,7 @@
         <v>9</v>
       </c>
       <c r="G131" t="n">
-        <v>379.32041013</v>
+        <v>43812</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5443,6 +5567,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5464,7 +5589,7 @@
         <v>1.7188</v>
       </c>
       <c r="G132" t="n">
-        <v>379.32041013</v>
+        <v>43754</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5484,6 +5609,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5505,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>378.32041013</v>
+        <v>43724</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5525,6 +5651,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5546,7 +5673,7 @@
         <v>9.2445</v>
       </c>
       <c r="G134" t="n">
-        <v>369.07591013</v>
+        <v>43678</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5566,6 +5693,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5587,7 +5715,7 @@
         <v>9.7545</v>
       </c>
       <c r="G135" t="n">
-        <v>359.32141013</v>
+        <v>43648</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -5609,6 +5737,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5630,7 +5759,7 @@
         <v>0.1143</v>
       </c>
       <c r="G136" t="n">
-        <v>359.43571013</v>
+        <v>43716</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5650,6 +5779,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-26 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="C2" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="D2" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="E2" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1941</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>44834</v>
+        <v>564.8502093700002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>43790</v>
+        <v>43700</v>
       </c>
       <c r="C3" t="n">
-        <v>43790</v>
+        <v>43700</v>
       </c>
       <c r="D3" t="n">
-        <v>43790</v>
+        <v>43700</v>
       </c>
       <c r="E3" t="n">
-        <v>43790</v>
+        <v>43700</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2</v>
+        <v>4.1918</v>
       </c>
       <c r="G3" t="n">
-        <v>44836</v>
+        <v>569.0420093700002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45000</v>
+        <v>43530</v>
       </c>
       <c r="C4" t="n">
-        <v>45000</v>
+        <v>43530</v>
       </c>
       <c r="D4" t="n">
-        <v>45000</v>
+        <v>43530</v>
       </c>
       <c r="E4" t="n">
-        <v>45000</v>
+        <v>43530</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1942</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>44818</v>
+        <v>568.0420093700002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43750</v>
+        <v>44840</v>
       </c>
       <c r="C5" t="n">
-        <v>43750</v>
+        <v>44840</v>
       </c>
       <c r="D5" t="n">
-        <v>43750</v>
+        <v>44840</v>
       </c>
       <c r="E5" t="n">
-        <v>43750</v>
+        <v>44840</v>
       </c>
       <c r="F5" t="n">
-        <v>2.8869</v>
+        <v>0.0536</v>
       </c>
       <c r="G5" t="n">
-        <v>44548</v>
+        <v>568.0956093700001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44900</v>
+        <v>43440</v>
       </c>
       <c r="C6" t="n">
-        <v>44900</v>
+        <v>43430</v>
       </c>
       <c r="D6" t="n">
-        <v>44900</v>
+        <v>43440</v>
       </c>
       <c r="E6" t="n">
-        <v>44900</v>
+        <v>43430</v>
       </c>
       <c r="F6" t="n">
-        <v>13.2878</v>
+        <v>0.78</v>
       </c>
       <c r="G6" t="n">
-        <v>44508</v>
+        <v>567.3156093700002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44950</v>
+        <v>44630</v>
       </c>
       <c r="C7" t="n">
-        <v>44900</v>
+        <v>44630</v>
       </c>
       <c r="D7" t="n">
-        <v>44950</v>
+        <v>44630</v>
       </c>
       <c r="E7" t="n">
-        <v>44900</v>
+        <v>44630</v>
       </c>
       <c r="F7" t="n">
-        <v>18.2913</v>
+        <v>0.027</v>
       </c>
       <c r="G7" t="n">
-        <v>44468</v>
+        <v>567.3426093700002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44900</v>
+        <v>43430</v>
       </c>
       <c r="C8" t="n">
-        <v>44900</v>
+        <v>43430</v>
       </c>
       <c r="D8" t="n">
-        <v>44900</v>
+        <v>43430</v>
       </c>
       <c r="E8" t="n">
-        <v>44900</v>
+        <v>43430</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>44690</v>
+        <v>566.3426093700002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44940</v>
+        <v>44610</v>
       </c>
       <c r="C9" t="n">
-        <v>44950</v>
+        <v>44610</v>
       </c>
       <c r="D9" t="n">
-        <v>44950</v>
+        <v>44610</v>
       </c>
       <c r="E9" t="n">
-        <v>44940</v>
+        <v>44610</v>
       </c>
       <c r="F9" t="n">
-        <v>97.6909</v>
+        <v>0.22416498</v>
       </c>
       <c r="G9" t="n">
-        <v>44680</v>
+        <v>566.5667743500002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>45100</v>
+        <v>44610</v>
       </c>
       <c r="C10" t="n">
-        <v>45100</v>
+        <v>44610</v>
       </c>
       <c r="D10" t="n">
-        <v>45100</v>
+        <v>44610</v>
       </c>
       <c r="E10" t="n">
-        <v>45100</v>
+        <v>44610</v>
       </c>
       <c r="F10" t="n">
-        <v>0.767</v>
+        <v>4.3809</v>
       </c>
       <c r="G10" t="n">
-        <v>44950</v>
+        <v>566.5667743500002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="C11" t="n">
-        <v>45100</v>
+        <v>43430</v>
       </c>
       <c r="D11" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="E11" t="n">
-        <v>45100</v>
+        <v>43430</v>
       </c>
       <c r="F11" t="n">
-        <v>7.5041</v>
+        <v>0.5845</v>
       </c>
       <c r="G11" t="n">
-        <v>44990</v>
+        <v>565.9822743500001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="C12" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="D12" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="E12" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2752</v>
+        <v>1.0389</v>
       </c>
       <c r="G12" t="n">
-        <v>45030</v>
+        <v>567.0211743500001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="C13" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="D13" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="E13" t="n">
-        <v>45100</v>
+        <v>43530</v>
       </c>
       <c r="F13" t="n">
-        <v>4.2158</v>
+        <v>1.1741</v>
       </c>
       <c r="G13" t="n">
-        <v>45070</v>
+        <v>567.0211743500001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,35 +870,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>44810</v>
+        <v>43570</v>
       </c>
       <c r="C14" t="n">
-        <v>44810</v>
+        <v>43570</v>
       </c>
       <c r="D14" t="n">
-        <v>44810</v>
+        <v>43570</v>
       </c>
       <c r="E14" t="n">
-        <v>44810</v>
+        <v>43570</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3</v>
+        <v>0.4583</v>
       </c>
       <c r="G14" t="n">
-        <v>45042</v>
+        <v>567.4794743500001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>45100</v>
-      </c>
-      <c r="K14" t="n">
-        <v>45100</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -910,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44990</v>
+        <v>44970</v>
       </c>
       <c r="C15" t="n">
-        <v>45000</v>
+        <v>45200</v>
       </c>
       <c r="D15" t="n">
-        <v>45000</v>
+        <v>45200</v>
       </c>
       <c r="E15" t="n">
-        <v>44990</v>
+        <v>44970</v>
       </c>
       <c r="F15" t="n">
-        <v>19.9435</v>
+        <v>22.17471758</v>
       </c>
       <c r="G15" t="n">
-        <v>45022</v>
+        <v>589.6541919300001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -934,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -952,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45600</v>
+        <v>45140</v>
       </c>
       <c r="C16" t="n">
-        <v>45700</v>
+        <v>45140</v>
       </c>
       <c r="D16" t="n">
-        <v>45700</v>
+        <v>45140</v>
       </c>
       <c r="E16" t="n">
-        <v>45600</v>
+        <v>45140</v>
       </c>
       <c r="F16" t="n">
-        <v>3.7801</v>
+        <v>0.9747</v>
       </c>
       <c r="G16" t="n">
-        <v>45142</v>
+        <v>588.6794919300002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -976,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -994,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45700</v>
+        <v>44940</v>
       </c>
       <c r="C17" t="n">
-        <v>45700</v>
+        <v>44680</v>
       </c>
       <c r="D17" t="n">
-        <v>45700</v>
+        <v>44940</v>
       </c>
       <c r="E17" t="n">
-        <v>45700</v>
+        <v>44680</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1</v>
+        <v>10.0668</v>
       </c>
       <c r="G17" t="n">
-        <v>45262</v>
+        <v>578.6126919300002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1018,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1036,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45010</v>
+        <v>44940</v>
       </c>
       <c r="C18" t="n">
-        <v>45010</v>
+        <v>44940</v>
       </c>
       <c r="D18" t="n">
-        <v>45010</v>
+        <v>44940</v>
       </c>
       <c r="E18" t="n">
-        <v>45010</v>
+        <v>44940</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>45244</v>
+        <v>579.4206919300002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1060,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1078,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45650</v>
+        <v>44590</v>
       </c>
       <c r="C19" t="n">
-        <v>45800</v>
+        <v>44590</v>
       </c>
       <c r="D19" t="n">
-        <v>45800</v>
+        <v>44590</v>
       </c>
       <c r="E19" t="n">
-        <v>45650</v>
+        <v>44590</v>
       </c>
       <c r="F19" t="n">
-        <v>12.35645041</v>
+        <v>0.4</v>
       </c>
       <c r="G19" t="n">
-        <v>45442</v>
+        <v>579.0206919300002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1102,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1120,7 +1086,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45800</v>
+        <v>44340</v>
       </c>
       <c r="C20" t="n">
         <v>45800</v>
@@ -1129,13 +1095,13 @@
         <v>45800</v>
       </c>
       <c r="E20" t="n">
-        <v>45800</v>
+        <v>44340</v>
       </c>
       <c r="F20" t="n">
-        <v>4.959e-05</v>
+        <v>10.17594959</v>
       </c>
       <c r="G20" t="n">
-        <v>45602</v>
+        <v>589.1966415200002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1144,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1162,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45370</v>
+        <v>43800</v>
       </c>
       <c r="C21" t="n">
-        <v>45370</v>
+        <v>43600</v>
       </c>
       <c r="D21" t="n">
-        <v>45370</v>
+        <v>43800</v>
       </c>
       <c r="E21" t="n">
-        <v>45370</v>
+        <v>43600</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0.805</v>
       </c>
       <c r="G21" t="n">
-        <v>45536</v>
+        <v>588.3916415200002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1186,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1204,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>45420</v>
+        <v>43680</v>
       </c>
       <c r="C22" t="n">
-        <v>45420</v>
+        <v>45200</v>
       </c>
       <c r="D22" t="n">
-        <v>45420</v>
+        <v>45200</v>
       </c>
       <c r="E22" t="n">
-        <v>45420</v>
+        <v>43580</v>
       </c>
       <c r="F22" t="n">
-        <v>2.3553</v>
+        <v>7.8729</v>
       </c>
       <c r="G22" t="n">
-        <v>45480</v>
+        <v>596.2645415200002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1228,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1246,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45430</v>
+        <v>45210</v>
       </c>
       <c r="C23" t="n">
-        <v>45430</v>
+        <v>45200</v>
       </c>
       <c r="D23" t="n">
-        <v>45430</v>
+        <v>45210</v>
       </c>
       <c r="E23" t="n">
-        <v>45430</v>
+        <v>45200</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6</v>
+        <v>0.9685</v>
       </c>
       <c r="G23" t="n">
-        <v>45564</v>
+        <v>596.2645415200002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1270,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1288,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>45800</v>
+        <v>45190</v>
       </c>
       <c r="C24" t="n">
-        <v>45800</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="n">
-        <v>45800</v>
+        <v>45190</v>
       </c>
       <c r="E24" t="n">
-        <v>45800</v>
+        <v>45190</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.9994</v>
       </c>
       <c r="G24" t="n">
-        <v>45564</v>
+        <v>595.2651415200002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1312,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1330,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45890</v>
+        <v>44600</v>
       </c>
       <c r="C25" t="n">
-        <v>46590</v>
+        <v>44600</v>
       </c>
       <c r="D25" t="n">
-        <v>46590</v>
+        <v>44600</v>
       </c>
       <c r="E25" t="n">
-        <v>45890</v>
+        <v>44600</v>
       </c>
       <c r="F25" t="n">
-        <v>29.8095</v>
+        <v>0.4</v>
       </c>
       <c r="G25" t="n">
-        <v>45722</v>
+        <v>594.8651415200002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1354,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1372,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>46100</v>
+        <v>43780</v>
       </c>
       <c r="C26" t="n">
-        <v>46100</v>
+        <v>43780</v>
       </c>
       <c r="D26" t="n">
-        <v>46100</v>
+        <v>43780</v>
       </c>
       <c r="E26" t="n">
-        <v>46100</v>
+        <v>43780</v>
       </c>
       <c r="F26" t="n">
-        <v>6.5392</v>
+        <v>4.7513</v>
       </c>
       <c r="G26" t="n">
-        <v>45868</v>
+        <v>590.1138415200002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1396,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1414,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>46580</v>
+        <v>43780</v>
       </c>
       <c r="C27" t="n">
-        <v>46590</v>
+        <v>43780</v>
       </c>
       <c r="D27" t="n">
-        <v>46590</v>
+        <v>43780</v>
       </c>
       <c r="E27" t="n">
-        <v>46580</v>
+        <v>43780</v>
       </c>
       <c r="F27" t="n">
-        <v>1.2282</v>
+        <v>1.568</v>
       </c>
       <c r="G27" t="n">
-        <v>46102</v>
+        <v>590.1138415200002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1438,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1456,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>46590</v>
+        <v>43690</v>
       </c>
       <c r="C28" t="n">
-        <v>46590</v>
+        <v>45090</v>
       </c>
       <c r="D28" t="n">
-        <v>46590</v>
+        <v>45100</v>
       </c>
       <c r="E28" t="n">
-        <v>46590</v>
+        <v>43680</v>
       </c>
       <c r="F28" t="n">
-        <v>6.2027</v>
+        <v>10.6242</v>
       </c>
       <c r="G28" t="n">
-        <v>46334</v>
+        <v>600.7380415200001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1480,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1498,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>46590</v>
+        <v>45090</v>
       </c>
       <c r="C29" t="n">
-        <v>46600</v>
+        <v>45100</v>
       </c>
       <c r="D29" t="n">
-        <v>46600</v>
+        <v>45100</v>
       </c>
       <c r="E29" t="n">
-        <v>46590</v>
+        <v>45090</v>
       </c>
       <c r="F29" t="n">
-        <v>5.3408</v>
+        <v>0.6932</v>
       </c>
       <c r="G29" t="n">
-        <v>46494</v>
+        <v>601.4312415200002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1522,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1540,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>46600</v>
+        <v>45100</v>
       </c>
       <c r="C30" t="n">
-        <v>46590</v>
+        <v>45100</v>
       </c>
       <c r="D30" t="n">
-        <v>46600</v>
+        <v>45100</v>
       </c>
       <c r="E30" t="n">
-        <v>46590</v>
+        <v>45100</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1949</v>
+        <v>0.1294</v>
       </c>
       <c r="G30" t="n">
-        <v>46494</v>
+        <v>601.4312415200002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1564,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1582,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>46590</v>
+        <v>45100</v>
       </c>
       <c r="C31" t="n">
-        <v>46590</v>
+        <v>45100</v>
       </c>
       <c r="D31" t="n">
-        <v>46590</v>
+        <v>45100</v>
       </c>
       <c r="E31" t="n">
-        <v>46590</v>
+        <v>45100</v>
       </c>
       <c r="F31" t="n">
-        <v>9.892200000000001</v>
+        <v>0.1941</v>
       </c>
       <c r="G31" t="n">
-        <v>46592</v>
+        <v>601.4312415200002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1606,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1624,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>46600</v>
+        <v>43790</v>
       </c>
       <c r="C32" t="n">
-        <v>45630</v>
+        <v>43790</v>
       </c>
       <c r="D32" t="n">
-        <v>46800</v>
+        <v>43790</v>
       </c>
       <c r="E32" t="n">
-        <v>44300</v>
+        <v>43790</v>
       </c>
       <c r="F32" t="n">
-        <v>83.57940000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G32" t="n">
-        <v>46400</v>
+        <v>601.2312415200001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1648,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1666,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>46790</v>
+        <v>45000</v>
       </c>
       <c r="C33" t="n">
-        <v>46790</v>
+        <v>45000</v>
       </c>
       <c r="D33" t="n">
-        <v>46790</v>
+        <v>45000</v>
       </c>
       <c r="E33" t="n">
-        <v>46790</v>
+        <v>45000</v>
       </c>
       <c r="F33" t="n">
-        <v>2.4163</v>
+        <v>0.1942</v>
       </c>
       <c r="G33" t="n">
-        <v>46440</v>
+        <v>601.4254415200002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1690,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1708,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>46790</v>
+        <v>43750</v>
       </c>
       <c r="C34" t="n">
-        <v>46790</v>
+        <v>43750</v>
       </c>
       <c r="D34" t="n">
-        <v>46790</v>
+        <v>43750</v>
       </c>
       <c r="E34" t="n">
-        <v>46790</v>
+        <v>43750</v>
       </c>
       <c r="F34" t="n">
-        <v>1.8939</v>
+        <v>2.8869</v>
       </c>
       <c r="G34" t="n">
-        <v>46478</v>
+        <v>598.5385415200002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1732,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1750,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>46790</v>
+        <v>44900</v>
       </c>
       <c r="C35" t="n">
-        <v>46420</v>
+        <v>44900</v>
       </c>
       <c r="D35" t="n">
-        <v>46800</v>
+        <v>44900</v>
       </c>
       <c r="E35" t="n">
-        <v>46420</v>
+        <v>44900</v>
       </c>
       <c r="F35" t="n">
-        <v>10.6192</v>
+        <v>13.2878</v>
       </c>
       <c r="G35" t="n">
-        <v>46444</v>
+        <v>611.8263415200001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1774,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1792,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>45540</v>
+        <v>44950</v>
       </c>
       <c r="C36" t="n">
-        <v>44300</v>
+        <v>44900</v>
       </c>
       <c r="D36" t="n">
-        <v>45540</v>
+        <v>44950</v>
       </c>
       <c r="E36" t="n">
-        <v>44300</v>
+        <v>44900</v>
       </c>
       <c r="F36" t="n">
-        <v>43.128</v>
+        <v>18.2913</v>
       </c>
       <c r="G36" t="n">
-        <v>45986</v>
+        <v>611.8263415200001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1816,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1834,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>46390</v>
+        <v>44900</v>
       </c>
       <c r="C37" t="n">
-        <v>46390</v>
+        <v>44900</v>
       </c>
       <c r="D37" t="n">
-        <v>46390</v>
+        <v>44900</v>
       </c>
       <c r="E37" t="n">
-        <v>46390</v>
+        <v>44900</v>
       </c>
       <c r="F37" t="n">
-        <v>3.2631</v>
+        <v>0.2</v>
       </c>
       <c r="G37" t="n">
-        <v>46138</v>
+        <v>611.8263415200001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1858,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1876,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>46400</v>
+        <v>44940</v>
       </c>
       <c r="C38" t="n">
-        <v>46400</v>
+        <v>44950</v>
       </c>
       <c r="D38" t="n">
-        <v>46400</v>
+        <v>44950</v>
       </c>
       <c r="E38" t="n">
-        <v>46400</v>
+        <v>44940</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4</v>
+        <v>97.6909</v>
       </c>
       <c r="G38" t="n">
-        <v>46060</v>
+        <v>709.5172415200002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1900,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1918,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>46360</v>
+        <v>45100</v>
       </c>
       <c r="C39" t="n">
-        <v>46300</v>
+        <v>45100</v>
       </c>
       <c r="D39" t="n">
-        <v>46360</v>
+        <v>45100</v>
       </c>
       <c r="E39" t="n">
-        <v>46300</v>
+        <v>45100</v>
       </c>
       <c r="F39" t="n">
-        <v>7.4899</v>
+        <v>0.767</v>
       </c>
       <c r="G39" t="n">
-        <v>45962</v>
+        <v>710.2842415200003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1942,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1960,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>46420</v>
+        <v>45100</v>
       </c>
       <c r="C40" t="n">
-        <v>46580</v>
+        <v>45100</v>
       </c>
       <c r="D40" t="n">
-        <v>46580</v>
+        <v>45100</v>
       </c>
       <c r="E40" t="n">
-        <v>46420</v>
+        <v>45100</v>
       </c>
       <c r="F40" t="n">
-        <v>9.1251</v>
+        <v>7.5041</v>
       </c>
       <c r="G40" t="n">
-        <v>45994</v>
+        <v>710.2842415200003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1984,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2002,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="C41" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="D41" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="E41" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>0.2752</v>
       </c>
       <c r="G41" t="n">
-        <v>46502</v>
+        <v>710.2842415200003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2026,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2044,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="C42" t="n">
-        <v>47000</v>
+        <v>45100</v>
       </c>
       <c r="D42" t="n">
-        <v>47000</v>
+        <v>45100</v>
       </c>
       <c r="E42" t="n">
-        <v>46840</v>
+        <v>45100</v>
       </c>
       <c r="F42" t="n">
-        <v>3.1615</v>
+        <v>4.2158</v>
       </c>
       <c r="G42" t="n">
-        <v>46624</v>
+        <v>710.2842415200003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2068,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2086,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>47000</v>
+        <v>44810</v>
       </c>
       <c r="C43" t="n">
-        <v>46740</v>
+        <v>44810</v>
       </c>
       <c r="D43" t="n">
-        <v>47000</v>
+        <v>44810</v>
       </c>
       <c r="E43" t="n">
-        <v>46740</v>
+        <v>44810</v>
       </c>
       <c r="F43" t="n">
-        <v>2.4819</v>
+        <v>0.3</v>
       </c>
       <c r="G43" t="n">
-        <v>46692</v>
+        <v>709.9842415200003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2110,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2128,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>46690</v>
+        <v>44990</v>
       </c>
       <c r="C44" t="n">
-        <v>46340</v>
+        <v>45000</v>
       </c>
       <c r="D44" t="n">
-        <v>46990</v>
+        <v>45000</v>
       </c>
       <c r="E44" t="n">
-        <v>46340</v>
+        <v>44990</v>
       </c>
       <c r="F44" t="n">
-        <v>1.8327</v>
+        <v>19.9435</v>
       </c>
       <c r="G44" t="n">
-        <v>46700</v>
+        <v>729.9277415200003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2152,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2170,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>46030</v>
+        <v>45600</v>
       </c>
       <c r="C45" t="n">
-        <v>45950</v>
+        <v>45700</v>
       </c>
       <c r="D45" t="n">
-        <v>46030</v>
+        <v>45700</v>
       </c>
       <c r="E45" t="n">
-        <v>45950</v>
+        <v>45600</v>
       </c>
       <c r="F45" t="n">
-        <v>10.4606</v>
+        <v>3.7801</v>
       </c>
       <c r="G45" t="n">
-        <v>46574</v>
+        <v>733.7078415200002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2194,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2212,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>45110</v>
+        <v>45700</v>
       </c>
       <c r="C46" t="n">
-        <v>45110</v>
+        <v>45700</v>
       </c>
       <c r="D46" t="n">
-        <v>45110</v>
+        <v>45700</v>
       </c>
       <c r="E46" t="n">
-        <v>45110</v>
+        <v>45700</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5649</v>
+        <v>0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>46228</v>
+        <v>733.7078415200002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2236,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2254,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>45120</v>
+        <v>45010</v>
       </c>
       <c r="C47" t="n">
-        <v>45120</v>
+        <v>45010</v>
       </c>
       <c r="D47" t="n">
-        <v>45120</v>
+        <v>45010</v>
       </c>
       <c r="E47" t="n">
-        <v>45120</v>
+        <v>45010</v>
       </c>
       <c r="F47" t="n">
-        <v>1.2639</v>
+        <v>0.6</v>
       </c>
       <c r="G47" t="n">
-        <v>45852</v>
+        <v>733.1078415200002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2278,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>45910</v>
+        <v>45650</v>
       </c>
       <c r="C48" t="n">
-        <v>45910</v>
+        <v>45800</v>
       </c>
       <c r="D48" t="n">
-        <v>45910</v>
+        <v>45800</v>
       </c>
       <c r="E48" t="n">
-        <v>45910</v>
+        <v>45650</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0195</v>
+        <v>12.35645041</v>
       </c>
       <c r="G48" t="n">
-        <v>45686</v>
+        <v>745.4642919300002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2320,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2338,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>45970</v>
+        <v>45800</v>
       </c>
       <c r="C49" t="n">
-        <v>45970</v>
+        <v>45800</v>
       </c>
       <c r="D49" t="n">
-        <v>45970</v>
+        <v>45800</v>
       </c>
       <c r="E49" t="n">
-        <v>45970</v>
+        <v>45800</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1262</v>
+        <v>4.959e-05</v>
       </c>
       <c r="G49" t="n">
-        <v>45612</v>
+        <v>745.4642919300002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2362,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2380,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>45970</v>
+        <v>45370</v>
       </c>
       <c r="C50" t="n">
-        <v>45970</v>
+        <v>45370</v>
       </c>
       <c r="D50" t="n">
-        <v>45970</v>
+        <v>45370</v>
       </c>
       <c r="E50" t="n">
-        <v>45970</v>
+        <v>45370</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0497</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>45616</v>
+        <v>744.4642919300002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2404,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2422,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>45110</v>
+        <v>45420</v>
       </c>
       <c r="C51" t="n">
-        <v>46090</v>
+        <v>45420</v>
       </c>
       <c r="D51" t="n">
-        <v>46090</v>
+        <v>45420</v>
       </c>
       <c r="E51" t="n">
-        <v>45110</v>
+        <v>45420</v>
       </c>
       <c r="F51" t="n">
-        <v>9.0924</v>
+        <v>2.3553</v>
       </c>
       <c r="G51" t="n">
-        <v>45812</v>
+        <v>746.8195919300002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2446,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2464,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>46100</v>
+        <v>45430</v>
       </c>
       <c r="C52" t="n">
-        <v>46110</v>
+        <v>45430</v>
       </c>
       <c r="D52" t="n">
-        <v>46110</v>
+        <v>45430</v>
       </c>
       <c r="E52" t="n">
-        <v>46100</v>
+        <v>45430</v>
       </c>
       <c r="F52" t="n">
-        <v>80.65989999999999</v>
+        <v>0.6</v>
       </c>
       <c r="G52" t="n">
-        <v>46010</v>
+        <v>747.4195919300003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2488,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2506,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>46110</v>
+        <v>45800</v>
       </c>
       <c r="C53" t="n">
-        <v>46100</v>
+        <v>45800</v>
       </c>
       <c r="D53" t="n">
-        <v>46110</v>
+        <v>45800</v>
       </c>
       <c r="E53" t="n">
-        <v>46100</v>
+        <v>45800</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5195</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>46048</v>
+        <v>748.4195919300003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2530,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2548,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>46100</v>
+        <v>45890</v>
       </c>
       <c r="C54" t="n">
-        <v>46100</v>
+        <v>46590</v>
       </c>
       <c r="D54" t="n">
-        <v>46100</v>
+        <v>46590</v>
       </c>
       <c r="E54" t="n">
-        <v>46100</v>
+        <v>45890</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>29.8095</v>
       </c>
       <c r="G54" t="n">
-        <v>46074</v>
+        <v>778.2290919300002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2572,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2590,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>46110</v>
+        <v>46100</v>
       </c>
       <c r="C55" t="n">
-        <v>46350</v>
+        <v>46100</v>
       </c>
       <c r="D55" t="n">
-        <v>46350</v>
+        <v>46100</v>
       </c>
       <c r="E55" t="n">
-        <v>46110</v>
+        <v>46100</v>
       </c>
       <c r="F55" t="n">
-        <v>14.8512</v>
+        <v>6.5392</v>
       </c>
       <c r="G55" t="n">
-        <v>46150</v>
+        <v>771.6898919300002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2614,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2632,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>46160</v>
+        <v>46580</v>
       </c>
       <c r="C56" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="D56" t="n">
-        <v>46160</v>
+        <v>46590</v>
       </c>
       <c r="E56" t="n">
-        <v>46150</v>
+        <v>46580</v>
       </c>
       <c r="F56" t="n">
-        <v>9.994899999999999</v>
+        <v>1.2282</v>
       </c>
       <c r="G56" t="n">
-        <v>46162</v>
+        <v>772.9180919300002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2656,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2674,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="C57" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="D57" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="E57" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="F57" t="n">
-        <v>1.0029</v>
+        <v>6.2027</v>
       </c>
       <c r="G57" t="n">
-        <v>46170</v>
+        <v>772.9180919300002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2698,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2716,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>45650</v>
+        <v>46590</v>
       </c>
       <c r="C58" t="n">
-        <v>46150</v>
+        <v>46600</v>
       </c>
       <c r="D58" t="n">
-        <v>46150</v>
+        <v>46600</v>
       </c>
       <c r="E58" t="n">
-        <v>45650</v>
+        <v>46590</v>
       </c>
       <c r="F58" t="n">
-        <v>4.1973</v>
+        <v>5.3408</v>
       </c>
       <c r="G58" t="n">
-        <v>46180</v>
+        <v>778.2588919300001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2740,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2758,66 +2490,58 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>46150</v>
+        <v>46600</v>
       </c>
       <c r="C59" t="n">
-        <v>46880</v>
+        <v>46590</v>
       </c>
       <c r="D59" t="n">
-        <v>46890</v>
+        <v>46600</v>
       </c>
       <c r="E59" t="n">
-        <v>46150</v>
+        <v>46590</v>
       </c>
       <c r="F59" t="n">
-        <v>3.1547</v>
+        <v>0.1949</v>
       </c>
       <c r="G59" t="n">
-        <v>46336</v>
+        <v>778.0639919300002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>45100</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>1.034467849223947</v>
-      </c>
-      <c r="N59" t="n">
-        <v>1.030857142857143</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>46880</v>
+        <v>46590</v>
       </c>
       <c r="C60" t="n">
-        <v>46980</v>
+        <v>46590</v>
       </c>
       <c r="D60" t="n">
-        <v>46980</v>
+        <v>46590</v>
       </c>
       <c r="E60" t="n">
-        <v>46880</v>
+        <v>46590</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1515</v>
+        <v>9.892200000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>46462</v>
+        <v>778.0639919300002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2838,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>46980</v>
+        <v>46600</v>
       </c>
       <c r="C61" t="n">
-        <v>46980</v>
+        <v>45630</v>
       </c>
       <c r="D61" t="n">
-        <v>46980</v>
+        <v>46800</v>
       </c>
       <c r="E61" t="n">
-        <v>46980</v>
+        <v>44300</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1408</v>
+        <v>83.57940000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>46628</v>
+        <v>694.4845919300002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2874,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="C62" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="D62" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="E62" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0663</v>
+        <v>2.4163</v>
       </c>
       <c r="G62" t="n">
-        <v>46794</v>
+        <v>696.9008919300002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2910,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="C63" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="D63" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="E63" t="n">
-        <v>46980</v>
+        <v>46790</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1245</v>
+        <v>1.8939</v>
       </c>
       <c r="G63" t="n">
-        <v>46960</v>
+        <v>696.9008919300002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2946,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>46380</v>
+        <v>46790</v>
       </c>
       <c r="C64" t="n">
-        <v>46370</v>
+        <v>46420</v>
       </c>
       <c r="D64" t="n">
-        <v>46970</v>
+        <v>46800</v>
       </c>
       <c r="E64" t="n">
-        <v>46370</v>
+        <v>46420</v>
       </c>
       <c r="F64" t="n">
-        <v>13.2979</v>
+        <v>10.6192</v>
       </c>
       <c r="G64" t="n">
-        <v>46858</v>
+        <v>686.2816919300002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2982,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>46860</v>
+        <v>45540</v>
       </c>
       <c r="C65" t="n">
-        <v>46860</v>
+        <v>44300</v>
       </c>
       <c r="D65" t="n">
-        <v>46860</v>
+        <v>45540</v>
       </c>
       <c r="E65" t="n">
-        <v>46860</v>
+        <v>44300</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0375</v>
+        <v>43.128</v>
       </c>
       <c r="G65" t="n">
-        <v>46834</v>
+        <v>643.1536919300002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3018,28 +2742,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>45800</v>
+        <v>46390</v>
       </c>
       <c r="C66" t="n">
-        <v>44310</v>
+        <v>46390</v>
       </c>
       <c r="D66" t="n">
-        <v>45800</v>
+        <v>46390</v>
       </c>
       <c r="E66" t="n">
-        <v>44310</v>
+        <v>46390</v>
       </c>
       <c r="F66" t="n">
-        <v>27.6937</v>
+        <v>3.2631</v>
       </c>
       <c r="G66" t="n">
-        <v>46300</v>
+        <v>646.4167919300002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3054,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>45380</v>
+        <v>46400</v>
       </c>
       <c r="C67" t="n">
-        <v>45380</v>
+        <v>46400</v>
       </c>
       <c r="D67" t="n">
-        <v>45380</v>
+        <v>46400</v>
       </c>
       <c r="E67" t="n">
-        <v>45380</v>
+        <v>46400</v>
       </c>
       <c r="F67" t="n">
-        <v>3.1043</v>
+        <v>0.4</v>
       </c>
       <c r="G67" t="n">
-        <v>45980</v>
+        <v>646.8167919300001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3090,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>46590</v>
+        <v>46360</v>
       </c>
       <c r="C68" t="n">
-        <v>46680</v>
+        <v>46300</v>
       </c>
       <c r="D68" t="n">
-        <v>46680</v>
+        <v>46360</v>
       </c>
       <c r="E68" t="n">
-        <v>46590</v>
+        <v>46300</v>
       </c>
       <c r="F68" t="n">
-        <v>0.25</v>
+        <v>7.4899</v>
       </c>
       <c r="G68" t="n">
-        <v>45920</v>
+        <v>639.3268919300001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3126,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>46400</v>
+        <v>46420</v>
       </c>
       <c r="C69" t="n">
-        <v>46400</v>
+        <v>46580</v>
       </c>
       <c r="D69" t="n">
-        <v>46400</v>
+        <v>46580</v>
       </c>
       <c r="E69" t="n">
-        <v>46400</v>
+        <v>46420</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01</v>
+        <v>9.1251</v>
       </c>
       <c r="G69" t="n">
-        <v>45926</v>
+        <v>648.4519919300001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3162,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>46130</v>
+        <v>46840</v>
       </c>
       <c r="C70" t="n">
-        <v>46130</v>
+        <v>46840</v>
       </c>
       <c r="D70" t="n">
-        <v>46130</v>
+        <v>46840</v>
       </c>
       <c r="E70" t="n">
-        <v>46130</v>
+        <v>46840</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>45780</v>
+        <v>652.4519919300001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3198,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>45340</v>
+        <v>46840</v>
       </c>
       <c r="C71" t="n">
-        <v>45340</v>
+        <v>47000</v>
       </c>
       <c r="D71" t="n">
-        <v>45340</v>
+        <v>47000</v>
       </c>
       <c r="E71" t="n">
-        <v>45340</v>
+        <v>46840</v>
       </c>
       <c r="F71" t="n">
-        <v>9.7257</v>
+        <v>3.1615</v>
       </c>
       <c r="G71" t="n">
-        <v>45986</v>
+        <v>655.6134919300001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3234,28 +2958,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>45270</v>
+        <v>47000</v>
       </c>
       <c r="C72" t="n">
-        <v>45500</v>
+        <v>46740</v>
       </c>
       <c r="D72" t="n">
-        <v>45510</v>
+        <v>47000</v>
       </c>
       <c r="E72" t="n">
-        <v>45270</v>
+        <v>46740</v>
       </c>
       <c r="F72" t="n">
-        <v>7.0121</v>
+        <v>2.4819</v>
       </c>
       <c r="G72" t="n">
-        <v>46010</v>
+        <v>653.1315919300001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3270,28 +2994,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>45500</v>
+        <v>46690</v>
       </c>
       <c r="C73" t="n">
-        <v>45500</v>
+        <v>46340</v>
       </c>
       <c r="D73" t="n">
-        <v>45500</v>
+        <v>46990</v>
       </c>
       <c r="E73" t="n">
-        <v>45500</v>
+        <v>46340</v>
       </c>
       <c r="F73" t="n">
-        <v>1.6888</v>
+        <v>1.8327</v>
       </c>
       <c r="G73" t="n">
-        <v>45774</v>
+        <v>651.2988919300001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3306,28 +3030,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>45500</v>
+        <v>46030</v>
       </c>
       <c r="C74" t="n">
-        <v>45500</v>
+        <v>45950</v>
       </c>
       <c r="D74" t="n">
-        <v>45500</v>
+        <v>46030</v>
       </c>
       <c r="E74" t="n">
-        <v>45500</v>
+        <v>45950</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5121</v>
+        <v>10.4606</v>
       </c>
       <c r="G74" t="n">
-        <v>45594</v>
+        <v>640.8382919300001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3342,28 +3066,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>45500</v>
+        <v>45110</v>
       </c>
       <c r="C75" t="n">
-        <v>45500</v>
+        <v>45110</v>
       </c>
       <c r="D75" t="n">
-        <v>45500</v>
+        <v>45110</v>
       </c>
       <c r="E75" t="n">
-        <v>45500</v>
+        <v>45110</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8248</v>
+        <v>0.5649</v>
       </c>
       <c r="G75" t="n">
-        <v>45468</v>
+        <v>640.2733919300001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3378,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>45290</v>
+        <v>45120</v>
       </c>
       <c r="C76" t="n">
-        <v>45290</v>
+        <v>45120</v>
       </c>
       <c r="D76" t="n">
-        <v>45290</v>
+        <v>45120</v>
       </c>
       <c r="E76" t="n">
-        <v>45290</v>
+        <v>45120</v>
       </c>
       <c r="F76" t="n">
-        <v>3.6631</v>
+        <v>1.2639</v>
       </c>
       <c r="G76" t="n">
-        <v>45458</v>
+        <v>641.5372919300002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3414,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>45270</v>
+        <v>45910</v>
       </c>
       <c r="C77" t="n">
-        <v>45220</v>
+        <v>45910</v>
       </c>
       <c r="D77" t="n">
-        <v>45270</v>
+        <v>45910</v>
       </c>
       <c r="E77" t="n">
-        <v>45220</v>
+        <v>45910</v>
       </c>
       <c r="F77" t="n">
-        <v>8.4604</v>
+        <v>0.0195</v>
       </c>
       <c r="G77" t="n">
-        <v>45402</v>
+        <v>641.5567919300001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3450,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>45040</v>
+        <v>45970</v>
       </c>
       <c r="C78" t="n">
-        <v>44330</v>
+        <v>45970</v>
       </c>
       <c r="D78" t="n">
-        <v>45040</v>
+        <v>45970</v>
       </c>
       <c r="E78" t="n">
-        <v>44330</v>
+        <v>45970</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0.1262</v>
       </c>
       <c r="G78" t="n">
-        <v>45168</v>
+        <v>641.6829919300002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3486,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>44340</v>
+        <v>45970</v>
       </c>
       <c r="C79" t="n">
-        <v>44330</v>
+        <v>45970</v>
       </c>
       <c r="D79" t="n">
-        <v>44340</v>
+        <v>45970</v>
       </c>
       <c r="E79" t="n">
-        <v>44330</v>
+        <v>45970</v>
       </c>
       <c r="F79" t="n">
-        <v>15.4441</v>
+        <v>0.0497</v>
       </c>
       <c r="G79" t="n">
-        <v>44934</v>
+        <v>641.6829919300002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3522,28 +3246,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>45270</v>
+        <v>45110</v>
       </c>
       <c r="C80" t="n">
-        <v>45270</v>
+        <v>46090</v>
       </c>
       <c r="D80" t="n">
-        <v>45270</v>
+        <v>46090</v>
       </c>
       <c r="E80" t="n">
-        <v>45270</v>
+        <v>45110</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1</v>
+        <v>9.0924</v>
       </c>
       <c r="G80" t="n">
-        <v>44888</v>
+        <v>650.7753919300002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3558,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>45270</v>
+        <v>46100</v>
       </c>
       <c r="C81" t="n">
-        <v>45270</v>
+        <v>46110</v>
       </c>
       <c r="D81" t="n">
-        <v>45270</v>
+        <v>46110</v>
       </c>
       <c r="E81" t="n">
-        <v>45270</v>
+        <v>46100</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1</v>
+        <v>80.65989999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>44884</v>
+        <v>731.4352919300002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3594,28 +3318,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>45270</v>
+        <v>46110</v>
       </c>
       <c r="C82" t="n">
-        <v>45600</v>
+        <v>46100</v>
       </c>
       <c r="D82" t="n">
-        <v>45600</v>
+        <v>46110</v>
       </c>
       <c r="E82" t="n">
-        <v>45270</v>
+        <v>46100</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8</v>
+        <v>0.5195</v>
       </c>
       <c r="G82" t="n">
-        <v>44960</v>
+        <v>730.9157919300002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3630,28 +3354,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="C83" t="n">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="D83" t="n">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="E83" t="n">
-        <v>45700</v>
+        <v>46100</v>
       </c>
       <c r="F83" t="n">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>45234</v>
+        <v>730.9157919300002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3666,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>45660</v>
+        <v>46110</v>
       </c>
       <c r="C84" t="n">
-        <v>45660</v>
+        <v>46350</v>
       </c>
       <c r="D84" t="n">
-        <v>45660</v>
+        <v>46350</v>
       </c>
       <c r="E84" t="n">
-        <v>45660</v>
+        <v>46110</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02</v>
+        <v>14.8512</v>
       </c>
       <c r="G84" t="n">
-        <v>45500</v>
+        <v>745.7669919300001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3702,28 +3426,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>45540</v>
+        <v>46160</v>
       </c>
       <c r="C85" t="n">
-        <v>45540</v>
+        <v>46150</v>
       </c>
       <c r="D85" t="n">
-        <v>45540</v>
+        <v>46160</v>
       </c>
       <c r="E85" t="n">
-        <v>45540</v>
+        <v>46150</v>
       </c>
       <c r="F85" t="n">
-        <v>0.01</v>
+        <v>9.994899999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>45554</v>
+        <v>735.7720919300001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3738,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>44700</v>
+        <v>46150</v>
       </c>
       <c r="C86" t="n">
-        <v>44700</v>
+        <v>46150</v>
       </c>
       <c r="D86" t="n">
-        <v>44700</v>
+        <v>46150</v>
       </c>
       <c r="E86" t="n">
-        <v>44700</v>
+        <v>46150</v>
       </c>
       <c r="F86" t="n">
-        <v>17.4929</v>
+        <v>1.0029</v>
       </c>
       <c r="G86" t="n">
-        <v>45440</v>
+        <v>735.7720919300001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3774,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>44700</v>
+        <v>45650</v>
       </c>
       <c r="C87" t="n">
-        <v>44410</v>
+        <v>46150</v>
       </c>
       <c r="D87" t="n">
-        <v>44700</v>
+        <v>46150</v>
       </c>
       <c r="E87" t="n">
-        <v>44410</v>
+        <v>45650</v>
       </c>
       <c r="F87" t="n">
-        <v>4.3518</v>
+        <v>4.1973</v>
       </c>
       <c r="G87" t="n">
-        <v>45202</v>
+        <v>735.7720919300001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3810,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>44500</v>
+        <v>46150</v>
       </c>
       <c r="C88" t="n">
-        <v>44510</v>
+        <v>46880</v>
       </c>
       <c r="D88" t="n">
-        <v>44510</v>
+        <v>46890</v>
       </c>
       <c r="E88" t="n">
-        <v>44400</v>
+        <v>46150</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>3.1547</v>
       </c>
       <c r="G88" t="n">
-        <v>44964</v>
+        <v>738.9267919300001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3846,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>44500</v>
+        <v>46880</v>
       </c>
       <c r="C89" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="D89" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="E89" t="n">
-        <v>44500</v>
+        <v>46880</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>0.1515</v>
       </c>
       <c r="G89" t="n">
-        <v>44734</v>
+        <v>739.0782919300002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3882,35 +3606,31 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="C90" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="D90" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="E90" t="n">
-        <v>44510</v>
+        <v>46980</v>
       </c>
       <c r="F90" t="n">
-        <v>6.4967</v>
+        <v>0.1408</v>
       </c>
       <c r="G90" t="n">
-        <v>44528</v>
+        <v>739.0782919300002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>44510</v>
-      </c>
-      <c r="K90" t="n">
-        <v>44510</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
@@ -3922,40 +3642,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="C91" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="D91" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="E91" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="F91" t="n">
-        <v>4</v>
+        <v>0.0663</v>
       </c>
       <c r="G91" t="n">
-        <v>44488</v>
+        <v>739.0782919300002</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>44510</v>
-      </c>
-      <c r="K91" t="n">
-        <v>44510</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3966,38 +3678,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="C92" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="D92" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="E92" t="n">
-        <v>44500</v>
+        <v>46980</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1</v>
+        <v>0.1245</v>
       </c>
       <c r="G92" t="n">
-        <v>44506</v>
+        <v>739.0782919300002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>44510</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4008,28 +3714,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>44500</v>
+        <v>46380</v>
       </c>
       <c r="C93" t="n">
-        <v>44300</v>
+        <v>46370</v>
       </c>
       <c r="D93" t="n">
-        <v>44500</v>
+        <v>46970</v>
       </c>
       <c r="E93" t="n">
-        <v>44300</v>
+        <v>46370</v>
       </c>
       <c r="F93" t="n">
-        <v>110</v>
+        <v>13.2979</v>
       </c>
       <c r="G93" t="n">
-        <v>44464</v>
+        <v>725.7803919300002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -4044,28 +3750,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>44300</v>
+        <v>46860</v>
       </c>
       <c r="C94" t="n">
-        <v>44300</v>
+        <v>46860</v>
       </c>
       <c r="D94" t="n">
-        <v>44300</v>
+        <v>46860</v>
       </c>
       <c r="E94" t="n">
-        <v>44010</v>
+        <v>46860</v>
       </c>
       <c r="F94" t="n">
-        <v>100.7608</v>
+        <v>0.0375</v>
       </c>
       <c r="G94" t="n">
-        <v>44422</v>
+        <v>725.8178919300002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4080,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>44000</v>
+        <v>45800</v>
       </c>
       <c r="C95" t="n">
-        <v>44010</v>
+        <v>44310</v>
       </c>
       <c r="D95" t="n">
-        <v>44790</v>
+        <v>45800</v>
       </c>
       <c r="E95" t="n">
-        <v>44000</v>
+        <v>44310</v>
       </c>
       <c r="F95" t="n">
-        <v>15.8586</v>
+        <v>27.6937</v>
       </c>
       <c r="G95" t="n">
-        <v>44322</v>
+        <v>698.1241919300002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4116,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>44010</v>
+        <v>45380</v>
       </c>
       <c r="C96" t="n">
-        <v>44720</v>
+        <v>45380</v>
       </c>
       <c r="D96" t="n">
-        <v>44750</v>
+        <v>45380</v>
       </c>
       <c r="E96" t="n">
-        <v>43870</v>
+        <v>45380</v>
       </c>
       <c r="F96" t="n">
-        <v>63.5829</v>
+        <v>3.1043</v>
       </c>
       <c r="G96" t="n">
-        <v>44366</v>
+        <v>701.2284919300001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4152,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>43880</v>
+        <v>46590</v>
       </c>
       <c r="C97" t="n">
-        <v>44670</v>
+        <v>46680</v>
       </c>
       <c r="D97" t="n">
-        <v>44670</v>
+        <v>46680</v>
       </c>
       <c r="E97" t="n">
-        <v>43810</v>
+        <v>46590</v>
       </c>
       <c r="F97" t="n">
-        <v>21.7376</v>
+        <v>0.25</v>
       </c>
       <c r="G97" t="n">
-        <v>44400</v>
+        <v>701.4784919300001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4188,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>44660</v>
+        <v>46400</v>
       </c>
       <c r="C98" t="n">
-        <v>44460</v>
+        <v>46400</v>
       </c>
       <c r="D98" t="n">
-        <v>44660</v>
+        <v>46400</v>
       </c>
       <c r="E98" t="n">
-        <v>43840</v>
+        <v>46400</v>
       </c>
       <c r="F98" t="n">
-        <v>2.0379</v>
+        <v>0.01</v>
       </c>
       <c r="G98" t="n">
-        <v>44432</v>
+        <v>701.4684919300001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4224,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>43830</v>
+        <v>46130</v>
       </c>
       <c r="C99" t="n">
-        <v>44430</v>
+        <v>46130</v>
       </c>
       <c r="D99" t="n">
-        <v>44430</v>
+        <v>46130</v>
       </c>
       <c r="E99" t="n">
-        <v>43830</v>
+        <v>46130</v>
       </c>
       <c r="F99" t="n">
-        <v>28.0491</v>
+        <v>0.01</v>
       </c>
       <c r="G99" t="n">
-        <v>44458</v>
+        <v>701.4584919300002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4260,28 +3966,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>44420</v>
+        <v>45340</v>
       </c>
       <c r="C100" t="n">
-        <v>44420</v>
+        <v>45340</v>
       </c>
       <c r="D100" t="n">
-        <v>44420</v>
+        <v>45340</v>
       </c>
       <c r="E100" t="n">
-        <v>44420</v>
+        <v>45340</v>
       </c>
       <c r="F100" t="n">
-        <v>22.5123818</v>
+        <v>9.7257</v>
       </c>
       <c r="G100" t="n">
-        <v>44540</v>
+        <v>691.7327919300002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4296,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>43920</v>
+        <v>45270</v>
       </c>
       <c r="C101" t="n">
-        <v>43930</v>
+        <v>45500</v>
       </c>
       <c r="D101" t="n">
-        <v>43930</v>
+        <v>45510</v>
       </c>
       <c r="E101" t="n">
-        <v>43900</v>
+        <v>45270</v>
       </c>
       <c r="F101" t="n">
-        <v>19.4679</v>
+        <v>7.0121</v>
       </c>
       <c r="G101" t="n">
-        <v>44382</v>
+        <v>698.7448919300002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4332,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>43850</v>
+        <v>45500</v>
       </c>
       <c r="C102" t="n">
-        <v>43850</v>
+        <v>45500</v>
       </c>
       <c r="D102" t="n">
-        <v>43850</v>
+        <v>45500</v>
       </c>
       <c r="E102" t="n">
-        <v>43850</v>
+        <v>45500</v>
       </c>
       <c r="F102" t="n">
-        <v>5.0963</v>
+        <v>1.6888</v>
       </c>
       <c r="G102" t="n">
-        <v>44218</v>
+        <v>698.7448919300002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4368,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>43890</v>
+        <v>45500</v>
       </c>
       <c r="C103" t="n">
-        <v>43930</v>
+        <v>45500</v>
       </c>
       <c r="D103" t="n">
-        <v>43930</v>
+        <v>45500</v>
       </c>
       <c r="E103" t="n">
-        <v>43890</v>
+        <v>45500</v>
       </c>
       <c r="F103" t="n">
-        <v>4.4229</v>
+        <v>0.5121</v>
       </c>
       <c r="G103" t="n">
-        <v>44112</v>
+        <v>698.7448919300002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4404,35 +4110,31 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>43970</v>
+        <v>45500</v>
       </c>
       <c r="C104" t="n">
-        <v>43980</v>
+        <v>45500</v>
       </c>
       <c r="D104" t="n">
-        <v>43980</v>
+        <v>45500</v>
       </c>
       <c r="E104" t="n">
-        <v>43970</v>
+        <v>45500</v>
       </c>
       <c r="F104" t="n">
-        <v>8.4603</v>
+        <v>0.8248</v>
       </c>
       <c r="G104" t="n">
-        <v>44022</v>
+        <v>698.7448919300002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>43930</v>
-      </c>
-      <c r="K104" t="n">
-        <v>43930</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
@@ -4444,40 +4146,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>44020</v>
+        <v>45290</v>
       </c>
       <c r="C105" t="n">
-        <v>44020</v>
+        <v>45290</v>
       </c>
       <c r="D105" t="n">
-        <v>44020</v>
+        <v>45290</v>
       </c>
       <c r="E105" t="n">
-        <v>44020</v>
+        <v>45290</v>
       </c>
       <c r="F105" t="n">
-        <v>3.3172</v>
+        <v>3.6631</v>
       </c>
       <c r="G105" t="n">
-        <v>43942</v>
+        <v>695.0817919300002</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>43980</v>
-      </c>
-      <c r="K105" t="n">
-        <v>43930</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4488,40 +4182,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>44040</v>
+        <v>45270</v>
       </c>
       <c r="C106" t="n">
-        <v>44100</v>
+        <v>45220</v>
       </c>
       <c r="D106" t="n">
-        <v>44100</v>
+        <v>45270</v>
       </c>
       <c r="E106" t="n">
-        <v>44040</v>
+        <v>45220</v>
       </c>
       <c r="F106" t="n">
-        <v>3.6462</v>
+        <v>8.4604</v>
       </c>
       <c r="G106" t="n">
-        <v>43976</v>
+        <v>686.6213919300002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>44020</v>
-      </c>
-      <c r="K106" t="n">
-        <v>43930</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4532,35 +4218,31 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>44670</v>
+        <v>45040</v>
       </c>
       <c r="C107" t="n">
-        <v>44680</v>
+        <v>44330</v>
       </c>
       <c r="D107" t="n">
-        <v>44680</v>
+        <v>45040</v>
       </c>
       <c r="E107" t="n">
-        <v>44670</v>
+        <v>44330</v>
       </c>
       <c r="F107" t="n">
-        <v>28.4617</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>44142</v>
+        <v>685.6213919300002</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>44100</v>
-      </c>
-      <c r="K107" t="n">
-        <v>44100</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
@@ -4572,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>44630</v>
+        <v>44340</v>
       </c>
       <c r="C108" t="n">
-        <v>44630</v>
+        <v>44330</v>
       </c>
       <c r="D108" t="n">
-        <v>44630</v>
+        <v>44340</v>
       </c>
       <c r="E108" t="n">
-        <v>44630</v>
+        <v>44330</v>
       </c>
       <c r="F108" t="n">
-        <v>0.23</v>
+        <v>15.4441</v>
       </c>
       <c r="G108" t="n">
-        <v>44282</v>
+        <v>685.6213919300002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4596,14 +4278,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>44100</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4614,40 +4290,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>44470</v>
+        <v>45270</v>
       </c>
       <c r="C109" t="n">
-        <v>44470</v>
+        <v>45270</v>
       </c>
       <c r="D109" t="n">
-        <v>44470</v>
+        <v>45270</v>
       </c>
       <c r="E109" t="n">
-        <v>44470</v>
+        <v>45270</v>
       </c>
       <c r="F109" t="n">
-        <v>28.4706</v>
+        <v>0.1</v>
       </c>
       <c r="G109" t="n">
-        <v>44380</v>
+        <v>685.7213919300002</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>44630</v>
-      </c>
-      <c r="K109" t="n">
-        <v>44100</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4658,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="C110" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="D110" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="E110" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="F110" t="n">
-        <v>5.4669</v>
+        <v>0.1</v>
       </c>
       <c r="G110" t="n">
-        <v>44456</v>
+        <v>685.7213919300002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4694,35 +4362,31 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="C111" t="n">
-        <v>44400</v>
+        <v>45600</v>
       </c>
       <c r="D111" t="n">
-        <v>44400</v>
+        <v>45600</v>
       </c>
       <c r="E111" t="n">
-        <v>44400</v>
+        <v>45270</v>
       </c>
       <c r="F111" t="n">
-        <v>53</v>
+        <v>0.8</v>
       </c>
       <c r="G111" t="n">
-        <v>44516</v>
+        <v>686.5213919300002</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>44400</v>
-      </c>
-      <c r="K111" t="n">
-        <v>44400</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
@@ -4734,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>44740</v>
+        <v>45700</v>
       </c>
       <c r="C112" t="n">
-        <v>44740</v>
+        <v>45700</v>
       </c>
       <c r="D112" t="n">
-        <v>44740</v>
+        <v>45700</v>
       </c>
       <c r="E112" t="n">
-        <v>44740</v>
+        <v>45700</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0386</v>
+        <v>0.01</v>
       </c>
       <c r="G112" t="n">
-        <v>44528</v>
+        <v>686.5313919300002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4758,1028 +4422,2048 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>45660</v>
+      </c>
+      <c r="C113" t="n">
+        <v>45660</v>
+      </c>
+      <c r="D113" t="n">
+        <v>45660</v>
+      </c>
+      <c r="E113" t="n">
+        <v>45660</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G113" t="n">
+        <v>686.5113919300002</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>45540</v>
+      </c>
+      <c r="C114" t="n">
+        <v>45540</v>
+      </c>
+      <c r="D114" t="n">
+        <v>45540</v>
+      </c>
+      <c r="E114" t="n">
+        <v>45540</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G114" t="n">
+        <v>686.5013919300002</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C115" t="n">
+        <v>44700</v>
+      </c>
+      <c r="D115" t="n">
+        <v>44700</v>
+      </c>
+      <c r="E115" t="n">
+        <v>44700</v>
+      </c>
+      <c r="F115" t="n">
+        <v>17.4929</v>
+      </c>
+      <c r="G115" t="n">
+        <v>669.0084919300002</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C116" t="n">
+        <v>44410</v>
+      </c>
+      <c r="D116" t="n">
+        <v>44700</v>
+      </c>
+      <c r="E116" t="n">
+        <v>44410</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4.3518</v>
+      </c>
+      <c r="G116" t="n">
+        <v>664.6566919300002</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C117" t="n">
+        <v>44510</v>
+      </c>
+      <c r="D117" t="n">
+        <v>44510</v>
+      </c>
+      <c r="E117" t="n">
         <v>44400</v>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="F117" t="n">
+        <v>3</v>
+      </c>
+      <c r="G117" t="n">
+        <v>667.6566919300002</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C118" t="n">
+        <v>44510</v>
+      </c>
+      <c r="D118" t="n">
+        <v>44510</v>
+      </c>
+      <c r="E118" t="n">
+        <v>44500</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3</v>
+      </c>
+      <c r="G118" t="n">
+        <v>667.6566919300002</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>44510</v>
+      </c>
+      <c r="C119" t="n">
+        <v>44510</v>
+      </c>
+      <c r="D119" t="n">
+        <v>44510</v>
+      </c>
+      <c r="E119" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F119" t="n">
+        <v>6.4967</v>
+      </c>
+      <c r="G119" t="n">
+        <v>667.6566919300002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C120" t="n">
+        <v>44500</v>
+      </c>
+      <c r="D120" t="n">
+        <v>44500</v>
+      </c>
+      <c r="E120" t="n">
+        <v>44500</v>
+      </c>
+      <c r="F120" t="n">
+        <v>4</v>
+      </c>
+      <c r="G120" t="n">
+        <v>663.6566919300002</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C121" t="n">
+        <v>44500</v>
+      </c>
+      <c r="D121" t="n">
+        <v>44500</v>
+      </c>
+      <c r="E121" t="n">
+        <v>44500</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>663.6566919300002</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C122" t="n">
+        <v>44300</v>
+      </c>
+      <c r="D122" t="n">
+        <v>44500</v>
+      </c>
+      <c r="E122" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F122" t="n">
+        <v>110</v>
+      </c>
+      <c r="G122" t="n">
+        <v>553.6566919300002</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>44300</v>
+      </c>
+      <c r="C123" t="n">
+        <v>44300</v>
+      </c>
+      <c r="D123" t="n">
+        <v>44300</v>
+      </c>
+      <c r="E123" t="n">
+        <v>44010</v>
+      </c>
+      <c r="F123" t="n">
+        <v>100.7608</v>
+      </c>
+      <c r="G123" t="n">
+        <v>553.6566919300002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>44000</v>
+      </c>
+      <c r="C124" t="n">
+        <v>44010</v>
+      </c>
+      <c r="D124" t="n">
+        <v>44790</v>
+      </c>
+      <c r="E124" t="n">
+        <v>44000</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15.8586</v>
+      </c>
+      <c r="G124" t="n">
+        <v>537.7980919300002</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>44010</v>
+      </c>
+      <c r="C125" t="n">
+        <v>44720</v>
+      </c>
+      <c r="D125" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E125" t="n">
+        <v>43870</v>
+      </c>
+      <c r="F125" t="n">
+        <v>63.5829</v>
+      </c>
+      <c r="G125" t="n">
+        <v>601.3809919300002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>43880</v>
+      </c>
+      <c r="C126" t="n">
+        <v>44670</v>
+      </c>
+      <c r="D126" t="n">
+        <v>44670</v>
+      </c>
+      <c r="E126" t="n">
+        <v>43810</v>
+      </c>
+      <c r="F126" t="n">
+        <v>21.7376</v>
+      </c>
+      <c r="G126" t="n">
+        <v>579.6433919300001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>44660</v>
+      </c>
+      <c r="C127" t="n">
+        <v>44460</v>
+      </c>
+      <c r="D127" t="n">
+        <v>44660</v>
+      </c>
+      <c r="E127" t="n">
+        <v>43840</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.0379</v>
+      </c>
+      <c r="G127" t="n">
+        <v>577.6054919300001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>43830</v>
+      </c>
+      <c r="C128" t="n">
+        <v>44430</v>
+      </c>
+      <c r="D128" t="n">
+        <v>44430</v>
+      </c>
+      <c r="E128" t="n">
+        <v>43830</v>
+      </c>
+      <c r="F128" t="n">
+        <v>28.0491</v>
+      </c>
+      <c r="G128" t="n">
+        <v>549.5563919300001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>44420</v>
+      </c>
+      <c r="C129" t="n">
+        <v>44420</v>
+      </c>
+      <c r="D129" t="n">
+        <v>44420</v>
+      </c>
+      <c r="E129" t="n">
+        <v>44420</v>
+      </c>
+      <c r="F129" t="n">
+        <v>22.5123818</v>
+      </c>
+      <c r="G129" t="n">
+        <v>527.0440101300002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>43920</v>
+      </c>
+      <c r="C130" t="n">
+        <v>43930</v>
+      </c>
+      <c r="D130" t="n">
+        <v>43930</v>
+      </c>
+      <c r="E130" t="n">
+        <v>43900</v>
+      </c>
+      <c r="F130" t="n">
+        <v>19.4679</v>
+      </c>
+      <c r="G130" t="n">
+        <v>507.5761101300002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>43850</v>
+      </c>
+      <c r="C131" t="n">
+        <v>43850</v>
+      </c>
+      <c r="D131" t="n">
+        <v>43850</v>
+      </c>
+      <c r="E131" t="n">
+        <v>43850</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5.0963</v>
+      </c>
+      <c r="G131" t="n">
+        <v>502.4798101300002</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>43890</v>
+      </c>
+      <c r="C132" t="n">
+        <v>43930</v>
+      </c>
+      <c r="D132" t="n">
+        <v>43930</v>
+      </c>
+      <c r="E132" t="n">
+        <v>43890</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4.4229</v>
+      </c>
+      <c r="G132" t="n">
+        <v>506.9027101300002</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>43850</v>
+      </c>
+      <c r="K132" t="n">
+        <v>43850</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>43970</v>
+      </c>
+      <c r="C133" t="n">
+        <v>43980</v>
+      </c>
+      <c r="D133" t="n">
+        <v>43980</v>
+      </c>
+      <c r="E133" t="n">
+        <v>43970</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8.4603</v>
+      </c>
+      <c r="G133" t="n">
+        <v>515.3630101300002</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>43850</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>44020</v>
+      </c>
+      <c r="C134" t="n">
+        <v>44020</v>
+      </c>
+      <c r="D134" t="n">
+        <v>44020</v>
+      </c>
+      <c r="E134" t="n">
+        <v>44020</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3.3172</v>
+      </c>
+      <c r="G134" t="n">
+        <v>518.6802101300002</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>43980</v>
+      </c>
+      <c r="K134" t="n">
+        <v>43850</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>44040</v>
+      </c>
+      <c r="C135" t="n">
+        <v>44100</v>
+      </c>
+      <c r="D135" t="n">
+        <v>44100</v>
+      </c>
+      <c r="E135" t="n">
+        <v>44040</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3.6462</v>
+      </c>
+      <c r="G135" t="n">
+        <v>522.3264101300002</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>44670</v>
+      </c>
+      <c r="C136" t="n">
+        <v>44680</v>
+      </c>
+      <c r="D136" t="n">
+        <v>44680</v>
+      </c>
+      <c r="E136" t="n">
+        <v>44670</v>
+      </c>
+      <c r="F136" t="n">
+        <v>28.4617</v>
+      </c>
+      <c r="G136" t="n">
+        <v>550.7881101300002</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>44100</v>
+      </c>
+      <c r="K136" t="n">
+        <v>44100</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>44630</v>
+      </c>
+      <c r="C137" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D137" t="n">
+        <v>44630</v>
+      </c>
+      <c r="E137" t="n">
+        <v>44630</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G137" t="n">
+        <v>550.5581101300002</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>44100</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C138" t="n">
+        <v>44470</v>
+      </c>
+      <c r="D138" t="n">
+        <v>44470</v>
+      </c>
+      <c r="E138" t="n">
+        <v>44470</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28.4706</v>
+      </c>
+      <c r="G138" t="n">
+        <v>522.0875101300002</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>44100</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C139" t="n">
+        <v>44400</v>
+      </c>
+      <c r="D139" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E139" t="n">
+        <v>44400</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5.4669</v>
+      </c>
+      <c r="G139" t="n">
+        <v>516.6206101300002</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C140" t="n">
+        <v>44400</v>
+      </c>
+      <c r="D140" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E140" t="n">
+        <v>44400</v>
+      </c>
+      <c r="F140" t="n">
+        <v>53</v>
+      </c>
+      <c r="G140" t="n">
+        <v>516.6206101300002</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C141" t="n">
+        <v>44740</v>
+      </c>
+      <c r="D141" t="n">
+        <v>44740</v>
+      </c>
+      <c r="E141" t="n">
+        <v>44740</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0386</v>
+      </c>
+      <c r="G141" t="n">
+        <v>516.6592101300001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
         <v>43960</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C142" t="n">
         <v>43970</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D142" t="n">
         <v>43970</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E142" t="n">
         <v>43960</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F142" t="n">
         <v>0.719</v>
       </c>
-      <c r="G113" t="n">
-        <v>44396</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="G142" t="n">
+        <v>515.9402101300001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>44720</v>
+      </c>
+      <c r="C143" t="n">
+        <v>44720</v>
+      </c>
+      <c r="D143" t="n">
+        <v>44720</v>
+      </c>
+      <c r="E143" t="n">
+        <v>44720</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="G143" t="n">
+        <v>516.0561101300001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>43990</v>
+      </c>
+      <c r="C144" t="n">
+        <v>43850</v>
+      </c>
+      <c r="D144" t="n">
+        <v>43990</v>
+      </c>
+      <c r="E144" t="n">
+        <v>43850</v>
+      </c>
+      <c r="F144" t="n">
+        <v>59.1708</v>
+      </c>
+      <c r="G144" t="n">
+        <v>456.8853101300001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C145" t="n">
+        <v>44640</v>
+      </c>
+      <c r="D145" t="n">
+        <v>44640</v>
+      </c>
+      <c r="E145" t="n">
+        <v>44640</v>
+      </c>
+      <c r="F145" t="n">
+        <v>8</v>
+      </c>
+      <c r="G145" t="n">
+        <v>464.8853101300001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>43870</v>
+      </c>
+      <c r="C146" t="n">
+        <v>43850</v>
+      </c>
+      <c r="D146" t="n">
+        <v>43870</v>
+      </c>
+      <c r="E146" t="n">
+        <v>43850</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.4483</v>
+      </c>
+      <c r="G146" t="n">
+        <v>464.4370101300001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>43920</v>
+      </c>
+      <c r="C147" t="n">
+        <v>43920</v>
+      </c>
+      <c r="D147" t="n">
+        <v>43920</v>
+      </c>
+      <c r="E147" t="n">
+        <v>43920</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="G147" t="n">
+        <v>471.4470101300001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>43860</v>
+      </c>
+      <c r="C148" t="n">
+        <v>43860</v>
+      </c>
+      <c r="D148" t="n">
+        <v>43860</v>
+      </c>
+      <c r="E148" t="n">
+        <v>43860</v>
+      </c>
+      <c r="F148" t="n">
+        <v>26.0306</v>
+      </c>
+      <c r="G148" t="n">
+        <v>445.4164101300001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>44130</v>
+      </c>
+      <c r="C149" t="n">
+        <v>44140</v>
+      </c>
+      <c r="D149" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E149" t="n">
+        <v>44130</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="G149" t="n">
+        <v>452.4364101300001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>43860</v>
+      </c>
+      <c r="K149" t="n">
+        <v>43860</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>44140</v>
+      </c>
+      <c r="C150" t="n">
+        <v>44140</v>
+      </c>
+      <c r="D150" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E150" t="n">
+        <v>44140</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4.605</v>
+      </c>
+      <c r="G150" t="n">
+        <v>452.4364101300001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>44140</v>
+      </c>
+      <c r="K150" t="n">
+        <v>43860</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>44420</v>
+      </c>
+      <c r="C151" t="n">
+        <v>44750</v>
+      </c>
+      <c r="D151" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E151" t="n">
+        <v>44420</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4.6641</v>
+      </c>
+      <c r="G151" t="n">
+        <v>457.1005101300001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>43860</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C152" t="n">
+        <v>45230</v>
+      </c>
+      <c r="D152" t="n">
+        <v>45230</v>
+      </c>
+      <c r="E152" t="n">
+        <v>45230</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.4289</v>
+      </c>
+      <c r="G152" t="n">
+        <v>458.5294101300001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>44750</v>
+      </c>
+      <c r="C153" t="n">
+        <v>44750</v>
+      </c>
+      <c r="D153" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E153" t="n">
+        <v>44750</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3.2271</v>
+      </c>
+      <c r="G153" t="n">
+        <v>455.3023101300001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>44140</v>
+      </c>
+      <c r="C154" t="n">
+        <v>43870</v>
+      </c>
+      <c r="D154" t="n">
+        <v>44140</v>
+      </c>
+      <c r="E154" t="n">
+        <v>43870</v>
+      </c>
+      <c r="F154" t="n">
+        <v>60.8475</v>
+      </c>
+      <c r="G154" t="n">
+        <v>394.4548101300001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>44010</v>
+      </c>
+      <c r="C155" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D155" t="n">
+        <v>44010</v>
+      </c>
+      <c r="E155" t="n">
+        <v>44000</v>
+      </c>
+      <c r="F155" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="G155" t="n">
+        <v>408.47481013</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>44000</v>
+      </c>
+      <c r="C156" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D156" t="n">
+        <v>44000</v>
+      </c>
+      <c r="E156" t="n">
+        <v>44000</v>
+      </c>
+      <c r="F156" t="n">
+        <v>35.05</v>
+      </c>
+      <c r="G156" t="n">
+        <v>408.47481013</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>44000</v>
+      </c>
+      <c r="K156" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>43870</v>
+      </c>
+      <c r="C157" t="n">
+        <v>43850</v>
+      </c>
+      <c r="D157" t="n">
+        <v>43870</v>
+      </c>
+      <c r="E157" t="n">
+        <v>43850</v>
+      </c>
+      <c r="F157" t="n">
+        <v>31.1399</v>
+      </c>
+      <c r="G157" t="n">
+        <v>377.33491013</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>44000</v>
+      </c>
+      <c r="K157" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>44720</v>
-      </c>
-      <c r="C114" t="n">
-        <v>44720</v>
-      </c>
-      <c r="D114" t="n">
-        <v>44720</v>
-      </c>
-      <c r="E114" t="n">
-        <v>44720</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.1159</v>
-      </c>
-      <c r="G114" t="n">
-        <v>44446</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>43850</v>
+      </c>
+      <c r="C158" t="n">
+        <v>43800</v>
+      </c>
+      <c r="D158" t="n">
+        <v>43850</v>
+      </c>
+      <c r="E158" t="n">
+        <v>43800</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6.9145</v>
+      </c>
+      <c r="G158" t="n">
+        <v>370.4204101300001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>43850</v>
+      </c>
+      <c r="K158" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>43990</v>
-      </c>
-      <c r="C115" t="n">
-        <v>43850</v>
-      </c>
-      <c r="D115" t="n">
-        <v>43990</v>
-      </c>
-      <c r="E115" t="n">
-        <v>43850</v>
-      </c>
-      <c r="F115" t="n">
-        <v>59.1708</v>
-      </c>
-      <c r="G115" t="n">
-        <v>44336</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>43700</v>
+      </c>
+      <c r="C159" t="n">
+        <v>43700</v>
+      </c>
+      <c r="D159" t="n">
+        <v>43700</v>
+      </c>
+      <c r="E159" t="n">
+        <v>43700</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>370.32041013</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>43800</v>
+      </c>
+      <c r="K159" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>44640</v>
-      </c>
-      <c r="C116" t="n">
-        <v>44640</v>
-      </c>
-      <c r="D116" t="n">
-        <v>44640</v>
-      </c>
-      <c r="E116" t="n">
-        <v>44640</v>
-      </c>
-      <c r="F116" t="n">
-        <v>8</v>
-      </c>
-      <c r="G116" t="n">
-        <v>44384</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>43710</v>
+      </c>
+      <c r="C160" t="n">
+        <v>43710</v>
+      </c>
+      <c r="D160" t="n">
+        <v>43710</v>
+      </c>
+      <c r="E160" t="n">
+        <v>43710</v>
+      </c>
+      <c r="F160" t="n">
+        <v>9</v>
+      </c>
+      <c r="G160" t="n">
+        <v>379.32041013</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>43700</v>
+      </c>
+      <c r="K160" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>43870</v>
-      </c>
-      <c r="C117" t="n">
-        <v>43850</v>
-      </c>
-      <c r="D117" t="n">
-        <v>43870</v>
-      </c>
-      <c r="E117" t="n">
-        <v>43850</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.4483</v>
-      </c>
-      <c r="G117" t="n">
-        <v>44206</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>43710</v>
+      </c>
+      <c r="C161" t="n">
+        <v>43710</v>
+      </c>
+      <c r="D161" t="n">
+        <v>43710</v>
+      </c>
+      <c r="E161" t="n">
+        <v>43710</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.7188</v>
+      </c>
+      <c r="G161" t="n">
+        <v>379.32041013</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>43710</v>
+      </c>
+      <c r="K161" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>43920</v>
-      </c>
-      <c r="C118" t="n">
-        <v>43920</v>
-      </c>
-      <c r="D118" t="n">
-        <v>43920</v>
-      </c>
-      <c r="E118" t="n">
-        <v>43920</v>
-      </c>
-      <c r="F118" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="G118" t="n">
-        <v>44196</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>43700</v>
+      </c>
+      <c r="C162" t="n">
+        <v>43700</v>
+      </c>
+      <c r="D162" t="n">
+        <v>43700</v>
+      </c>
+      <c r="E162" t="n">
+        <v>43700</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>378.32041013</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>43710</v>
+      </c>
+      <c r="K162" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>43860</v>
-      </c>
-      <c r="C119" t="n">
-        <v>43860</v>
-      </c>
-      <c r="D119" t="n">
-        <v>43860</v>
-      </c>
-      <c r="E119" t="n">
-        <v>43860</v>
-      </c>
-      <c r="F119" t="n">
-        <v>26.0306</v>
-      </c>
-      <c r="G119" t="n">
-        <v>44024</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>43700</v>
+      </c>
+      <c r="C163" t="n">
+        <v>43570</v>
+      </c>
+      <c r="D163" t="n">
+        <v>43700</v>
+      </c>
+      <c r="E163" t="n">
+        <v>43570</v>
+      </c>
+      <c r="F163" t="n">
+        <v>9.2445</v>
+      </c>
+      <c r="G163" t="n">
+        <v>369.07591013</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>43700</v>
+      </c>
+      <c r="K163" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>44130</v>
-      </c>
-      <c r="C120" t="n">
-        <v>44140</v>
-      </c>
-      <c r="D120" t="n">
-        <v>44140</v>
-      </c>
-      <c r="E120" t="n">
-        <v>44130</v>
-      </c>
-      <c r="F120" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="G120" t="n">
-        <v>44082</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>43570</v>
+      </c>
+      <c r="C164" t="n">
+        <v>43550</v>
+      </c>
+      <c r="D164" t="n">
+        <v>43570</v>
+      </c>
+      <c r="E164" t="n">
+        <v>43550</v>
+      </c>
+      <c r="F164" t="n">
+        <v>9.7545</v>
+      </c>
+      <c r="G164" t="n">
+        <v>359.32141013</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>43570</v>
+      </c>
+      <c r="K164" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>44140</v>
-      </c>
-      <c r="C121" t="n">
-        <v>44140</v>
-      </c>
-      <c r="D121" t="n">
-        <v>44140</v>
-      </c>
-      <c r="E121" t="n">
-        <v>44140</v>
-      </c>
-      <c r="F121" t="n">
-        <v>4.605</v>
-      </c>
-      <c r="G121" t="n">
-        <v>43982</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>44060</v>
+      </c>
+      <c r="C165" t="n">
+        <v>44050</v>
+      </c>
+      <c r="D165" t="n">
+        <v>44060</v>
+      </c>
+      <c r="E165" t="n">
+        <v>44050</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1143</v>
+      </c>
+      <c r="G165" t="n">
+        <v>359.43571013</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>43550</v>
+      </c>
+      <c r="K165" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>44420</v>
-      </c>
-      <c r="C122" t="n">
-        <v>44750</v>
-      </c>
-      <c r="D122" t="n">
-        <v>44750</v>
-      </c>
-      <c r="E122" t="n">
-        <v>44420</v>
-      </c>
-      <c r="F122" t="n">
-        <v>4.6641</v>
-      </c>
-      <c r="G122" t="n">
-        <v>44162</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>45230</v>
-      </c>
-      <c r="C123" t="n">
-        <v>45230</v>
-      </c>
-      <c r="D123" t="n">
-        <v>45230</v>
-      </c>
-      <c r="E123" t="n">
-        <v>45230</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1.4289</v>
-      </c>
-      <c r="G123" t="n">
-        <v>44424</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>44750</v>
-      </c>
-      <c r="C124" t="n">
-        <v>44750</v>
-      </c>
-      <c r="D124" t="n">
-        <v>44750</v>
-      </c>
-      <c r="E124" t="n">
-        <v>44750</v>
-      </c>
-      <c r="F124" t="n">
-        <v>3.2271</v>
-      </c>
-      <c r="G124" t="n">
-        <v>44602</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>44140</v>
-      </c>
-      <c r="C125" t="n">
-        <v>43870</v>
-      </c>
-      <c r="D125" t="n">
-        <v>44140</v>
-      </c>
-      <c r="E125" t="n">
-        <v>43870</v>
-      </c>
-      <c r="F125" t="n">
-        <v>60.8475</v>
-      </c>
-      <c r="G125" t="n">
-        <v>44548</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>44010</v>
-      </c>
-      <c r="C126" t="n">
-        <v>44000</v>
-      </c>
-      <c r="D126" t="n">
-        <v>44010</v>
-      </c>
-      <c r="E126" t="n">
-        <v>44000</v>
-      </c>
-      <c r="F126" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="G126" t="n">
-        <v>44520</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>44000</v>
-      </c>
-      <c r="C127" t="n">
-        <v>44000</v>
-      </c>
-      <c r="D127" t="n">
-        <v>44000</v>
-      </c>
-      <c r="E127" t="n">
-        <v>44000</v>
-      </c>
-      <c r="F127" t="n">
-        <v>35.05</v>
-      </c>
-      <c r="G127" t="n">
-        <v>44370</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>43870</v>
-      </c>
-      <c r="C128" t="n">
-        <v>43850</v>
-      </c>
-      <c r="D128" t="n">
-        <v>43870</v>
-      </c>
-      <c r="E128" t="n">
-        <v>43850</v>
-      </c>
-      <c r="F128" t="n">
-        <v>31.1399</v>
-      </c>
-      <c r="G128" t="n">
-        <v>44094</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>43850</v>
-      </c>
-      <c r="C129" t="n">
-        <v>43800</v>
-      </c>
-      <c r="D129" t="n">
-        <v>43850</v>
-      </c>
-      <c r="E129" t="n">
-        <v>43800</v>
-      </c>
-      <c r="F129" t="n">
-        <v>6.9145</v>
-      </c>
-      <c r="G129" t="n">
-        <v>43904</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>43700</v>
-      </c>
-      <c r="C130" t="n">
-        <v>43700</v>
-      </c>
-      <c r="D130" t="n">
-        <v>43700</v>
-      </c>
-      <c r="E130" t="n">
-        <v>43700</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G130" t="n">
-        <v>43870</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>43710</v>
-      </c>
-      <c r="C131" t="n">
-        <v>43710</v>
-      </c>
-      <c r="D131" t="n">
-        <v>43710</v>
-      </c>
-      <c r="E131" t="n">
-        <v>43710</v>
-      </c>
-      <c r="F131" t="n">
-        <v>9</v>
-      </c>
-      <c r="G131" t="n">
-        <v>43812</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>43710</v>
-      </c>
-      <c r="C132" t="n">
-        <v>43710</v>
-      </c>
-      <c r="D132" t="n">
-        <v>43710</v>
-      </c>
-      <c r="E132" t="n">
-        <v>43710</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1.7188</v>
-      </c>
-      <c r="G132" t="n">
-        <v>43754</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>43700</v>
-      </c>
-      <c r="C133" t="n">
-        <v>43700</v>
-      </c>
-      <c r="D133" t="n">
-        <v>43700</v>
-      </c>
-      <c r="E133" t="n">
-        <v>43700</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" t="n">
-        <v>43724</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>43700</v>
-      </c>
-      <c r="C134" t="n">
-        <v>43570</v>
-      </c>
-      <c r="D134" t="n">
-        <v>43700</v>
-      </c>
-      <c r="E134" t="n">
-        <v>43570</v>
-      </c>
-      <c r="F134" t="n">
-        <v>9.2445</v>
-      </c>
-      <c r="G134" t="n">
-        <v>43678</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>43570</v>
-      </c>
-      <c r="C135" t="n">
-        <v>43550</v>
-      </c>
-      <c r="D135" t="n">
-        <v>43570</v>
-      </c>
-      <c r="E135" t="n">
-        <v>43550</v>
-      </c>
-      <c r="F135" t="n">
-        <v>9.7545</v>
-      </c>
-      <c r="G135" t="n">
-        <v>43648</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>43570</v>
-      </c>
-      <c r="K135" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>44060</v>
-      </c>
-      <c r="C136" t="n">
-        <v>44050</v>
-      </c>
-      <c r="D136" t="n">
-        <v>44060</v>
-      </c>
-      <c r="E136" t="n">
-        <v>44050</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.1143</v>
-      </c>
-      <c r="G136" t="n">
-        <v>43716</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>44400</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-26 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>569.0420093700002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>43530</v>
+      </c>
+      <c r="J3" t="n">
+        <v>43530</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>568.0420093700002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>43700</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,23 @@
         <v>568.0956093700001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>43530</v>
+      </c>
+      <c r="J5" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +605,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +638,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +671,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +704,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +737,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +770,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +803,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +836,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +869,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +902,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +935,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +968,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1001,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1034,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1067,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1100,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1133,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1166,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1199,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1232,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1265,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1298,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1331,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1364,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1397,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1430,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1463,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1496,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1529,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1562,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1595,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1628,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1661,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1694,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1727,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1760,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1793,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1826,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1859,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1892,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1925,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1958,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1991,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2024,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2057,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2090,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2123,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2156,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2189,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2222,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2255,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2288,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2321,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2354,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2387,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2420,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2451,15 @@
         <v>696.9008919300002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2486,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2519,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2552,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2585,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2618,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2649,15 @@
         <v>639.3268919300001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2682,15 @@
         <v>648.4519919300001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2715,15 @@
         <v>652.4519919300001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2748,15 @@
         <v>655.6134919300001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2781,15 @@
         <v>653.1315919300001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2816,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2847,15 @@
         <v>640.8382919300001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2882,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2915,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2948,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2981,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3014,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3047,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3080,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3113,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3146,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3179,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3210,15 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3245,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3278,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3311,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3344,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3377,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3410,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3441,15 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3474,15 @@
         <v>725.7803919300002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3507,15 @@
         <v>725.8178919300002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3540,15 @@
         <v>698.1241919300002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3575,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3608,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3641,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3674,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3707,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3740,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3771,15 @@
         <v>698.7448919300002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3806,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3839,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3872,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3905,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3938,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3971,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4004,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4037,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4070,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4103,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4136,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4169,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4202,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4235,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4268,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4301,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4334,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4367,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4400,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4431,15 @@
         <v>553.6566919300002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4466,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4499,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4532,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4565,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4598,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4631,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4664,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4697,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4730,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,22 +4761,15 @@
         <v>506.9027101300002</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K132" t="n">
-        <v>43850</v>
-      </c>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5176,24 +4794,15 @@
         <v>515.3630101300002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>43850</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5220,24 +4829,13 @@
       <c r="H134" t="n">
         <v>1</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>43980</v>
-      </c>
-      <c r="K134" t="n">
-        <v>43850</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5264,16 +4862,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5298,22 +4893,15 @@
         <v>550.7881101300002</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>44100</v>
-      </c>
-      <c r="K136" t="n">
-        <v>44100</v>
-      </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5340,22 +4928,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>44100</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5380,24 +4959,15 @@
         <v>522.0875101300002</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>44100</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5422,18 +4992,15 @@
         <v>516.6206101300002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5460,16 +5027,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5494,18 +5058,15 @@
         <v>516.6592101300001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5532,16 +5093,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5568,16 +5126,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5604,16 +5159,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5640,16 +5192,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5676,16 +5225,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5712,16 +5258,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5748,16 +5291,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5782,22 +5322,15 @@
         <v>452.4364101300001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>43860</v>
-      </c>
-      <c r="K149" t="n">
-        <v>43860</v>
-      </c>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5822,26 +5355,15 @@
         <v>452.4364101300001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>44140</v>
-      </c>
-      <c r="K150" t="n">
-        <v>43860</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5868,22 +5390,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>43860</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5910,16 +5423,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5946,16 +5456,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5980,18 +5487,15 @@
         <v>394.4548101300001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6018,16 +5522,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6052,22 +5553,15 @@
         <v>408.47481013</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>44000</v>
-      </c>
-      <c r="K156" t="n">
-        <v>44000</v>
-      </c>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6092,26 +5586,15 @@
         <v>377.33491013</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>44000</v>
-      </c>
-      <c r="K157" t="n">
-        <v>44000</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6136,26 +5619,15 @@
         <v>370.4204101300001</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>43850</v>
-      </c>
-      <c r="K158" t="n">
-        <v>44000</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6180,26 +5652,15 @@
         <v>370.32041013</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>43800</v>
-      </c>
-      <c r="K159" t="n">
-        <v>44000</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6224,26 +5685,15 @@
         <v>379.32041013</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>43700</v>
-      </c>
-      <c r="K160" t="n">
-        <v>44000</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6268,26 +5718,15 @@
         <v>379.32041013</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>43710</v>
-      </c>
-      <c r="K161" t="n">
-        <v>44000</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6312,26 +5751,15 @@
         <v>378.32041013</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>43710</v>
-      </c>
-      <c r="K162" t="n">
-        <v>44000</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6356,26 +5784,15 @@
         <v>369.07591013</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>43700</v>
-      </c>
-      <c r="K163" t="n">
-        <v>44000</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6400,26 +5817,15 @@
         <v>359.32141013</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>43570</v>
-      </c>
-      <c r="K164" t="n">
-        <v>44000</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6444,28 +5850,21 @@
         <v>359.43571013</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>43550</v>
       </c>
       <c r="J165" t="n">
         <v>43550</v>
       </c>
-      <c r="K165" t="n">
-        <v>44000</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-26 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>564.8502093700002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>569.0420093700002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>43530</v>
@@ -521,7 +521,7 @@
         <v>568.0420093700002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>43700</v>
@@ -562,7 +562,7 @@
         <v>568.0956093700001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>43530</v>
@@ -2451,7 +2451,7 @@
         <v>696.9008919300002</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2616,7 +2616,7 @@
         <v>646.8167919300001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2649,7 +2649,7 @@
         <v>639.3268919300001</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2682,7 +2682,7 @@
         <v>648.4519919300001</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2715,7 +2715,7 @@
         <v>652.4519919300001</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2748,7 +2748,7 @@
         <v>655.6134919300001</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2781,7 +2781,7 @@
         <v>653.1315919300001</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2847,7 +2847,7 @@
         <v>640.8382919300001</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2880,7 +2880,7 @@
         <v>640.2733919300001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2913,7 +2913,7 @@
         <v>641.5372919300002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
         <v>641.5567919300001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2979,7 +2979,7 @@
         <v>641.6829919300002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3012,7 +3012,7 @@
         <v>641.6829919300002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3045,7 +3045,7 @@
         <v>650.7753919300002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3078,7 +3078,7 @@
         <v>731.4352919300002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3111,7 +3111,7 @@
         <v>730.9157919300002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3144,7 +3144,7 @@
         <v>730.9157919300002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3177,7 +3177,7 @@
         <v>745.7669919300001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3210,7 +3210,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3243,7 +3243,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3276,7 +3276,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3441,7 +3441,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
         <v>725.7803919300002</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3507,7 +3507,7 @@
         <v>725.8178919300002</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3540,7 +3540,7 @@
         <v>698.1241919300002</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
         <v>698.7448919300002</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3870,7 +3870,7 @@
         <v>695.0817919300002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3903,7 +3903,7 @@
         <v>686.6213919300002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
         <v>685.6213919300002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3969,7 +3969,7 @@
         <v>685.6213919300002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4002,7 +4002,7 @@
         <v>685.7213919300002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4035,7 +4035,7 @@
         <v>685.7213919300002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4068,7 +4068,7 @@
         <v>686.5213919300002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4101,7 +4101,7 @@
         <v>686.5313919300002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4167,7 +4167,7 @@
         <v>686.5013919300002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4200,7 +4200,7 @@
         <v>669.0084919300002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4233,7 +4233,7 @@
         <v>664.6566919300002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4266,7 +4266,7 @@
         <v>667.6566919300002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4299,7 +4299,7 @@
         <v>667.6566919300002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4332,7 +4332,7 @@
         <v>667.6566919300002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4365,7 +4365,7 @@
         <v>663.6566919300002</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4431,7 +4431,7 @@
         <v>553.6566919300002</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4794,7 +4794,7 @@
         <v>515.3630101300002</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4827,7 +4827,7 @@
         <v>518.6802101300002</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4959,7 +4959,7 @@
         <v>522.0875101300002</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4992,7 +4992,7 @@
         <v>516.6206101300002</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5058,7 +5058,7 @@
         <v>516.6592101300001</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5487,7 +5487,7 @@
         <v>394.4548101300001</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5850,14 +5850,10 @@
         <v>359.43571013</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>43550</v>
-      </c>
-      <c r="J165" t="n">
-        <v>43550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
@@ -5865,6 +5861,6 @@
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-26 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>564.8502093700002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>569.0420093700002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>43530</v>
-      </c>
-      <c r="J3" t="n">
-        <v>43530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>568.0420093700002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43700</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43530</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>568.0956093700001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>43530</v>
-      </c>
-      <c r="J5" t="n">
-        <v>43530</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,7 +583,7 @@
         <v>567.3156093700002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -636,7 +616,7 @@
         <v>567.3426093700002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -669,7 +649,7 @@
         <v>566.3426093700002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -702,7 +682,7 @@
         <v>566.5667743500002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -933,7 +913,7 @@
         <v>588.6794919300002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -966,7 +946,7 @@
         <v>578.6126919300002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1098,7 +1078,7 @@
         <v>588.3916415200002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1395,7 +1375,7 @@
         <v>601.4312415200002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1428,7 +1408,7 @@
         <v>601.4312415200002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1461,7 +1441,7 @@
         <v>601.2312415200001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1494,7 +1474,7 @@
         <v>601.4254415200002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1527,7 +1507,7 @@
         <v>598.5385415200002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1560,7 +1540,7 @@
         <v>611.8263415200001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1626,7 +1606,7 @@
         <v>611.8263415200001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1659,7 +1639,7 @@
         <v>709.5172415200002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1692,7 +1672,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1725,7 +1705,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1758,7 +1738,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1791,7 +1771,7 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1824,7 +1804,7 @@
         <v>709.9842415200003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1857,7 +1837,7 @@
         <v>729.9277415200003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1890,7 +1870,7 @@
         <v>733.7078415200002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1923,7 +1903,7 @@
         <v>733.7078415200002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1956,7 +1936,7 @@
         <v>733.1078415200002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1989,7 +1969,7 @@
         <v>745.4642919300002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2088,7 +2068,7 @@
         <v>746.8195919300002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2121,7 +2101,7 @@
         <v>747.4195919300003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2154,7 +2134,7 @@
         <v>748.4195919300003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2187,7 +2167,7 @@
         <v>778.2290919300002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2451,7 +2431,7 @@
         <v>696.9008919300002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2484,7 +2464,7 @@
         <v>696.9008919300002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2517,7 +2497,7 @@
         <v>686.2816919300002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2616,7 +2596,7 @@
         <v>646.8167919300001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2781,7 +2761,7 @@
         <v>653.1315919300001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2847,7 +2827,7 @@
         <v>640.8382919300001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2880,7 +2860,7 @@
         <v>640.2733919300001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2913,7 +2893,7 @@
         <v>641.5372919300002</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2946,7 +2926,7 @@
         <v>641.5567919300001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2979,7 +2959,7 @@
         <v>641.6829919300002</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3012,7 +2992,7 @@
         <v>641.6829919300002</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3045,7 +3025,7 @@
         <v>650.7753919300002</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3078,7 +3058,7 @@
         <v>731.4352919300002</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3111,7 +3091,7 @@
         <v>730.9157919300002</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3144,7 +3124,7 @@
         <v>730.9157919300002</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3177,7 +3157,7 @@
         <v>745.7669919300001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3210,7 +3190,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3243,7 +3223,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3276,7 +3256,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3870,7 +3850,7 @@
         <v>695.0817919300002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3903,7 +3883,7 @@
         <v>686.6213919300002</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3936,7 +3916,7 @@
         <v>685.6213919300002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3969,7 +3949,7 @@
         <v>685.6213919300002</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4002,7 +3982,7 @@
         <v>685.7213919300002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4035,7 +4015,7 @@
         <v>685.7213919300002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4068,7 +4048,7 @@
         <v>686.5213919300002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4101,7 +4081,7 @@
         <v>686.5313919300002</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4167,7 +4147,7 @@
         <v>686.5013919300002</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4200,7 +4180,7 @@
         <v>669.0084919300002</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4233,7 +4213,7 @@
         <v>664.6566919300002</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4266,7 +4246,7 @@
         <v>667.6566919300002</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4299,7 +4279,7 @@
         <v>667.6566919300002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4332,7 +4312,7 @@
         <v>667.6566919300002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4365,7 +4345,7 @@
         <v>663.6566919300002</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5751,10 +5731,14 @@
         <v>378.32041013</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>43710</v>
+      </c>
+      <c r="J162" t="n">
+        <v>43710</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
@@ -5784,11 +5768,19 @@
         <v>369.07591013</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>43700</v>
+      </c>
+      <c r="J163" t="n">
+        <v>43710</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5817,11 +5809,19 @@
         <v>359.32141013</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>43570</v>
+      </c>
+      <c r="J164" t="n">
+        <v>43710</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5850,17 +5850,25 @@
         <v>359.43571013</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>43550</v>
+      </c>
+      <c r="J165" t="n">
+        <v>43710</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-26 BackTest ZEC.xlsx
@@ -451,7 +451,7 @@
         <v>564.8502093700002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>569.0420093700002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43530</v>
+      </c>
+      <c r="J3" t="n">
+        <v>43530</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>568.0420093700002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43700</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>568.0956093700001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>43530</v>
+      </c>
+      <c r="J5" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>567.3156093700002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>44840</v>
+      </c>
+      <c r="J6" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>567.3426093700002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>43430</v>
+      </c>
+      <c r="J7" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,17 @@
         <v>566.3426093700002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +724,19 @@
         <v>566.5667743500002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>43430</v>
+      </c>
+      <c r="J9" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +768,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +807,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +846,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +885,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +999,17 @@
         <v>588.6794919300002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1038,17 @@
         <v>578.6126919300002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1194,17 @@
         <v>588.3916415200002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1353,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1392,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1431,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1509,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1545,17 @@
         <v>601.4312415200002</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1584,17 @@
         <v>601.4312415200002</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1623,17 @@
         <v>601.2312415200001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1662,17 @@
         <v>601.4254415200002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1701,17 @@
         <v>598.5385415200002</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1740,17 @@
         <v>611.8263415200001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1818,17 @@
         <v>611.8263415200001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1857,17 @@
         <v>709.5172415200002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1896,17 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1935,17 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1974,17 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2013,17 @@
         <v>710.2842415200003</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2052,17 @@
         <v>709.9842415200003</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2091,17 @@
         <v>729.9277415200003</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2130,17 @@
         <v>733.7078415200002</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2169,17 @@
         <v>733.7078415200002</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2208,17 @@
         <v>733.1078415200002</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2247,17 @@
         <v>745.4642919300002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2289,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2328,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2364,17 @@
         <v>746.8195919300002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2403,17 @@
         <v>747.4195919300003</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2442,17 @@
         <v>748.4195919300003</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2481,17 @@
         <v>778.2290919300002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2523,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2562,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2601,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2640,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2679,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2718,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2757,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2793,17 @@
         <v>696.9008919300002</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2832,17 @@
         <v>696.9008919300002</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2871,17 @@
         <v>686.2816919300002</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2913,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2952,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2991,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,15 +3027,23 @@
         <v>639.3268919300001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>43530</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>1.058634275212497</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.030094187916379</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3091,7 +3497,7 @@
         <v>730.9157919300002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3530,7 @@
         <v>730.9157919300002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3563,7 @@
         <v>745.7669919300001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3596,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3629,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3662,7 @@
         <v>735.7720919300001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3695,7 @@
         <v>738.9267919300001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3728,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3761,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3794,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3827,7 @@
         <v>739.0782919300002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3860,7 @@
         <v>725.7803919300002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3893,7 @@
         <v>725.8178919300002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3926,7 @@
         <v>698.1241919300002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3619,7 +4025,7 @@
         <v>701.4684919300001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +4058,7 @@
         <v>701.4584919300002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -5698,10 +6104,14 @@
         <v>379.32041013</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>43710</v>
+      </c>
+      <c r="J161" t="n">
+        <v>43710</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
@@ -5739,7 +6149,11 @@
       <c r="J162" t="n">
         <v>43710</v>
       </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5809,11 +6223,9 @@
         <v>359.32141013</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>43570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>43710</v>
       </c>
